--- a/Historicos/pobocup_nivel-ingreso.xlsx
+++ b/Historicos/pobocup_nivel-ingreso.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
   <si>
     <t>Indicadores</t>
   </si>
@@ -98,7 +98,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - I trimestre de 2021</t>
+    <t>I trimestre 2005 - II trimestre de 2021</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -632,19 +632,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -694,6 +681,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -739,7 +779,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -752,27 +792,20 @@
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -781,18 +814,18 @@
     <xf numFmtId="3" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -801,14 +834,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1154,10 +1202,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM17"/>
+  <dimension ref="A1:BN17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BR15" sqref="BR15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,434 +1274,439 @@
     <col min="61" max="61" width="18.140625" customWidth="1"/>
     <col min="62" max="64" width="17.140625" customWidth="1"/>
     <col min="65" max="65" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
     </row>
-    <row r="2" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="25"/>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="25"/>
-      <c r="AY3" s="25"/>
-      <c r="AZ3" s="25"/>
-      <c r="BA3" s="25"/>
-      <c r="BB3" s="25"/>
-      <c r="BC3" s="25"/>
-      <c r="BD3" s="25"/>
-      <c r="BE3" s="25"/>
-      <c r="BF3" s="25"/>
+    <row r="3" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="22"/>
+      <c r="AU3" s="22"/>
+      <c r="AV3" s="22"/>
+      <c r="AW3" s="22"/>
+      <c r="AX3" s="22"/>
+      <c r="AY3" s="22"/>
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="22"/>
+      <c r="BB3" s="22"/>
+      <c r="BC3" s="22"/>
+      <c r="BD3" s="22"/>
+      <c r="BE3" s="22"/>
+      <c r="BF3" s="22"/>
     </row>
-    <row r="4" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="19">
         <v>2005</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19">
         <v>2006</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19">
         <v>2007</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26">
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19">
         <v>2008</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26">
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19">
         <v>2009</v>
       </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26">
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19">
         <v>2010</v>
       </c>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26">
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19">
         <v>2011</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26">
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19">
         <v>2012</v>
       </c>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26">
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19">
         <v>2013</v>
       </c>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26">
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19">
         <v>2014</v>
       </c>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26">
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26">
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="19">
         <v>2016</v>
       </c>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="26">
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19">
         <v>2017</v>
       </c>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="26"/>
-      <c r="BB4" s="26">
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="19"/>
+      <c r="BB4" s="19">
         <v>2018</v>
       </c>
-      <c r="BC4" s="26"/>
-      <c r="BD4" s="26"/>
-      <c r="BE4" s="26"/>
-      <c r="BF4" s="26">
+      <c r="BC4" s="19"/>
+      <c r="BD4" s="19"/>
+      <c r="BE4" s="19"/>
+      <c r="BF4" s="19">
         <v>2019</v>
       </c>
-      <c r="BG4" s="26"/>
-      <c r="BH4" s="26"/>
-      <c r="BI4" s="28"/>
-      <c r="BJ4" s="26">
+      <c r="BG4" s="19"/>
+      <c r="BH4" s="19"/>
+      <c r="BI4" s="20"/>
+      <c r="BJ4" s="19">
         <v>2020</v>
       </c>
-      <c r="BK4" s="26"/>
-      <c r="BL4" s="26"/>
-      <c r="BM4" s="20">
+      <c r="BK4" s="19"/>
+      <c r="BL4" s="20"/>
+      <c r="BM4" s="19">
         <v>2021</v>
       </c>
+      <c r="BN4" s="19"/>
     </row>
-    <row r="5" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="21" t="s">
+    <row r="5" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="R5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="U5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="V5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="21" t="s">
+      <c r="W5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="X5" s="21" t="s">
+      <c r="X5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Y5" s="21" t="s">
+      <c r="Y5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="Z5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AA5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AB5" s="21" t="s">
+      <c r="AB5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AC5" s="21" t="s">
+      <c r="AC5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AD5" s="21" t="s">
+      <c r="AD5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AE5" s="21" t="s">
+      <c r="AE5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AF5" s="21" t="s">
+      <c r="AF5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AG5" s="21" t="s">
+      <c r="AG5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AH5" s="21" t="s">
+      <c r="AH5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AI5" s="21" t="s">
+      <c r="AI5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AJ5" s="21" t="s">
+      <c r="AJ5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AK5" s="21" t="s">
+      <c r="AK5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AL5" s="21" t="s">
+      <c r="AL5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AM5" s="21" t="s">
+      <c r="AM5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AN5" s="21" t="s">
+      <c r="AN5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AO5" s="21" t="s">
+      <c r="AO5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AP5" s="21" t="s">
+      <c r="AP5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AQ5" s="21" t="s">
+      <c r="AQ5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AR5" s="21" t="s">
+      <c r="AR5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AS5" s="21" t="s">
+      <c r="AS5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AT5" s="21" t="s">
+      <c r="AT5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AU5" s="21" t="s">
+      <c r="AU5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AV5" s="21" t="s">
+      <c r="AV5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AW5" s="21" t="s">
+      <c r="AW5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AX5" s="21" t="s">
+      <c r="AX5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AY5" s="21" t="s">
+      <c r="AY5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AZ5" s="21" t="s">
+      <c r="AZ5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="BA5" s="21" t="s">
+      <c r="BA5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="BB5" s="21" t="s">
+      <c r="BB5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="BC5" s="21" t="s">
+      <c r="BC5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="BD5" s="21" t="s">
+      <c r="BD5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="BE5" s="21" t="s">
+      <c r="BE5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="BF5" s="19" t="s">
+      <c r="BF5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="BG5" s="19" t="s">
+      <c r="BG5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="BH5" s="19" t="s">
+      <c r="BH5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="BI5" s="19" t="s">
+      <c r="BI5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="BJ5" s="19" t="s">
+      <c r="BJ5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="BK5" s="19" t="s">
+      <c r="BK5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="BL5" s="19" t="s">
+      <c r="BL5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="BM5" s="19" t="s">
+      <c r="BM5" s="16" t="s">
         <v>1</v>
       </c>
+      <c r="BN5" s="16" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1712,16 +1766,17 @@
       <c r="BC6" s="10"/>
       <c r="BD6" s="10"/>
       <c r="BE6" s="10"/>
-      <c r="BF6" s="10"/>
-      <c r="BG6" s="10"/>
-      <c r="BH6" s="11"/>
-      <c r="BI6" s="11"/>
-      <c r="BJ6" s="11"/>
-      <c r="BK6" s="11"/>
-      <c r="BL6" s="11"/>
-      <c r="BM6" s="11"/>
+      <c r="BF6" s="27"/>
+      <c r="BG6" s="27"/>
+      <c r="BH6" s="10"/>
+      <c r="BI6" s="10"/>
+      <c r="BJ6" s="10"/>
+      <c r="BK6" s="10"/>
+      <c r="BL6" s="10"/>
+      <c r="BM6" s="31"/>
+      <c r="BN6" s="32"/>
     </row>
-    <row r="7" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1896,29 +1951,32 @@
       <c r="BF7" s="7">
         <v>3757440</v>
       </c>
-      <c r="BG7" s="12">
+      <c r="BG7" s="11">
         <v>3734233</v>
       </c>
-      <c r="BH7" s="13">
+      <c r="BH7" s="24">
         <v>3761282</v>
       </c>
-      <c r="BI7" s="15">
+      <c r="BI7" s="25">
         <v>3772715</v>
       </c>
-      <c r="BJ7" s="18">
+      <c r="BJ7" s="26">
         <v>3778375</v>
       </c>
-      <c r="BK7" s="18">
+      <c r="BK7" s="26">
         <v>3576228</v>
       </c>
-      <c r="BL7" s="18">
+      <c r="BL7" s="29">
         <v>3654530</v>
       </c>
-      <c r="BM7" s="18">
+      <c r="BM7" s="15">
         <v>3735596</v>
       </c>
+      <c r="BN7" s="15">
+        <v>3824700</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2096,26 +2154,29 @@
       <c r="BG8" s="8">
         <v>387458</v>
       </c>
-      <c r="BH8" s="14">
+      <c r="BH8" s="12">
         <v>393260</v>
       </c>
-      <c r="BI8" s="16">
+      <c r="BI8" s="13">
         <v>379469</v>
       </c>
-      <c r="BJ8" s="17">
+      <c r="BJ8" s="14">
         <v>482835</v>
       </c>
-      <c r="BK8" s="17">
+      <c r="BK8" s="14">
         <v>437379</v>
       </c>
-      <c r="BL8" s="17">
+      <c r="BL8" s="30">
         <v>402304</v>
       </c>
-      <c r="BM8" s="17">
+      <c r="BM8" s="14">
         <v>493496</v>
       </c>
+      <c r="BN8" s="14">
+        <v>519377</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2293,26 +2354,29 @@
       <c r="BG9" s="8">
         <v>1164637</v>
       </c>
-      <c r="BH9" s="14">
+      <c r="BH9" s="12">
         <v>1188536</v>
       </c>
-      <c r="BI9" s="16">
+      <c r="BI9" s="13">
         <v>1167210</v>
       </c>
-      <c r="BJ9" s="17">
+      <c r="BJ9" s="14">
         <v>1426721</v>
       </c>
-      <c r="BK9" s="17">
+      <c r="BK9" s="14">
         <v>1374118</v>
       </c>
-      <c r="BL9" s="17">
+      <c r="BL9" s="30">
         <v>1409512</v>
       </c>
-      <c r="BM9" s="17">
+      <c r="BM9" s="14">
         <v>1638245</v>
       </c>
+      <c r="BN9" s="14">
+        <v>1607400</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2490,26 +2554,29 @@
       <c r="BG10" s="8">
         <v>1083886</v>
       </c>
-      <c r="BH10" s="14">
+      <c r="BH10" s="12">
         <v>1031702</v>
       </c>
-      <c r="BI10" s="16">
+      <c r="BI10" s="13">
         <v>1049227</v>
       </c>
-      <c r="BJ10" s="17">
+      <c r="BJ10" s="14">
         <v>922791</v>
       </c>
-      <c r="BK10" s="17">
+      <c r="BK10" s="14">
         <v>882460</v>
       </c>
-      <c r="BL10" s="17">
+      <c r="BL10" s="30">
         <v>990487</v>
       </c>
-      <c r="BM10" s="17">
+      <c r="BM10" s="14">
         <v>827318</v>
       </c>
+      <c r="BN10" s="14">
+        <v>862743</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2687,26 +2754,29 @@
       <c r="BG11" s="8">
         <v>487820</v>
       </c>
-      <c r="BH11" s="14">
+      <c r="BH11" s="12">
         <v>500611</v>
       </c>
-      <c r="BI11" s="16">
+      <c r="BI11" s="13">
         <v>539730</v>
       </c>
-      <c r="BJ11" s="17">
+      <c r="BJ11" s="14">
         <v>373902</v>
       </c>
-      <c r="BK11" s="17">
+      <c r="BK11" s="14">
         <v>390866</v>
       </c>
-      <c r="BL11" s="17">
+      <c r="BL11" s="30">
         <v>381817</v>
       </c>
-      <c r="BM11" s="17">
+      <c r="BM11" s="14">
         <v>383115</v>
       </c>
+      <c r="BN11" s="14">
+        <v>382310</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -2884,26 +2954,29 @@
       <c r="BG12" s="8">
         <v>166061</v>
       </c>
-      <c r="BH12" s="14">
+      <c r="BH12" s="12">
         <v>143017</v>
       </c>
-      <c r="BI12" s="16">
+      <c r="BI12" s="13">
         <v>162304</v>
       </c>
-      <c r="BJ12" s="17">
+      <c r="BJ12" s="14">
         <v>131859</v>
       </c>
-      <c r="BK12" s="17">
+      <c r="BK12" s="14">
         <v>113754</v>
       </c>
-      <c r="BL12" s="17">
+      <c r="BL12" s="30">
         <v>124728</v>
       </c>
-      <c r="BM12" s="17">
+      <c r="BM12" s="14">
         <v>90658</v>
       </c>
+      <c r="BN12" s="14">
+        <v>71216</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -3081,26 +3154,29 @@
       <c r="BG13" s="8">
         <v>118859</v>
       </c>
-      <c r="BH13" s="14">
+      <c r="BH13" s="12">
         <v>155194</v>
       </c>
-      <c r="BI13" s="16">
+      <c r="BI13" s="13">
         <v>130588</v>
       </c>
-      <c r="BJ13" s="17">
+      <c r="BJ13" s="14">
         <v>107501</v>
       </c>
-      <c r="BK13" s="17">
+      <c r="BK13" s="14">
         <v>108989</v>
       </c>
-      <c r="BL13" s="17">
+      <c r="BL13" s="30">
         <v>103253</v>
       </c>
-      <c r="BM13" s="17">
+      <c r="BM13" s="14">
         <v>88754</v>
       </c>
+      <c r="BN13" s="14">
+        <v>100693</v>
+      </c>
     </row>
-    <row r="14" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -3278,110 +3354,108 @@
       <c r="BG14" s="8">
         <v>325512</v>
       </c>
-      <c r="BH14" s="14">
+      <c r="BH14" s="12">
         <v>348962</v>
       </c>
-      <c r="BI14" s="16">
+      <c r="BI14" s="13">
         <v>344187</v>
       </c>
-      <c r="BJ14" s="17">
+      <c r="BJ14" s="14">
         <v>332766</v>
       </c>
-      <c r="BK14" s="17">
+      <c r="BK14" s="14">
         <v>268662</v>
       </c>
-      <c r="BL14" s="17">
+      <c r="BL14" s="30">
         <v>242429</v>
       </c>
-      <c r="BM14" s="17">
+      <c r="BM14" s="14">
         <v>214010</v>
       </c>
+      <c r="BN14" s="14">
+        <v>280961</v>
+      </c>
     </row>
-    <row r="15" spans="1:65" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:66" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="24"/>
-      <c r="AK15" s="24"/>
-      <c r="AL15" s="24"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="24"/>
-      <c r="AO15" s="24"/>
-      <c r="AP15" s="24"/>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="24"/>
-      <c r="AS15" s="24"/>
-      <c r="AT15" s="24"/>
-      <c r="AU15" s="24"/>
-      <c r="AV15" s="24"/>
-      <c r="AW15" s="24"/>
-      <c r="AX15" s="24"/>
-      <c r="AY15" s="24"/>
-      <c r="AZ15" s="24"/>
-      <c r="BA15" s="24"/>
-      <c r="BB15" s="24"/>
-      <c r="BC15" s="24"/>
-      <c r="BD15" s="24"/>
-      <c r="BE15" s="24"/>
-      <c r="BF15" s="24"/>
-      <c r="BG15" s="24"/>
-      <c r="BH15" s="24"/>
-      <c r="BI15" s="24"/>
-      <c r="BJ15" s="24"/>
-      <c r="BK15" s="24"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="21"/>
+      <c r="AT15" s="21"/>
+      <c r="AU15" s="21"/>
+      <c r="AV15" s="21"/>
+      <c r="AW15" s="21"/>
+      <c r="AX15" s="21"/>
+      <c r="AY15" s="21"/>
+      <c r="AZ15" s="21"/>
+      <c r="BA15" s="21"/>
+      <c r="BB15" s="21"/>
+      <c r="BC15" s="21"/>
+      <c r="BD15" s="21"/>
+      <c r="BE15" s="21"/>
+      <c r="BF15" s="21"/>
+      <c r="BG15" s="21"/>
+      <c r="BH15" s="21"/>
+      <c r="BI15" s="21"/>
+      <c r="BJ15" s="21"/>
+      <c r="BK15" s="21"/>
     </row>
-    <row r="16" spans="1:65" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:66" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="A15:BK15"/>
-    <mergeCell ref="A1:BF1"/>
+    <mergeCell ref="BM4:BN4"/>
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
@@ -3396,6 +3470,11 @@
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AH4:AK4"/>
     <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="A15:BK15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/pobocup_nivel-ingreso.xlsx
+++ b/Historicos/pobocup_nivel-ingreso.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
   <si>
     <t>Indicadores</t>
   </si>
@@ -98,7 +98,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - II trimestre de 2021</t>
+    <t>I trimestre 2005 - III trimestre de 2021</t>
   </si>
 </sst>
 </file>
@@ -779,7 +779,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -821,21 +821,6 @@
     <xf numFmtId="3" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -857,6 +842,22 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1202,11 +1203,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN17"/>
+  <dimension ref="A1:BO17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BR15" sqref="BR15"/>
+      <selection pane="topRight" activeCell="BS13" sqref="BS13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,10 +1275,11 @@
     <col min="61" max="61" width="18.140625" customWidth="1"/>
     <col min="62" max="64" width="17.140625" customWidth="1"/>
     <col min="65" max="65" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="19.85546875" customWidth="1"/>
+    <col min="66" max="66" width="17.5703125" customWidth="1"/>
+    <col min="67" max="67" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1339,177 +1341,178 @@
       <c r="BE1" s="2"/>
       <c r="BF1" s="2"/>
     </row>
-    <row r="2" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="22"/>
-      <c r="AT3" s="22"/>
-      <c r="AU3" s="22"/>
-      <c r="AV3" s="22"/>
-      <c r="AW3" s="22"/>
-      <c r="AX3" s="22"/>
-      <c r="AY3" s="22"/>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="22"/>
-      <c r="BB3" s="22"/>
-      <c r="BC3" s="22"/>
-      <c r="BD3" s="22"/>
-      <c r="BE3" s="22"/>
-      <c r="BF3" s="22"/>
+    <row r="3" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="29"/>
+      <c r="AX3" s="29"/>
+      <c r="AY3" s="29"/>
+      <c r="AZ3" s="29"/>
+      <c r="BA3" s="29"/>
+      <c r="BB3" s="29"/>
+      <c r="BC3" s="29"/>
+      <c r="BD3" s="29"/>
+      <c r="BE3" s="29"/>
+      <c r="BF3" s="29"/>
     </row>
-    <row r="4" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="28">
         <v>2005</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
         <v>2006</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19">
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28">
         <v>2007</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19">
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28">
         <v>2008</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19">
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28">
         <v>2009</v>
       </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19">
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28">
         <v>2010</v>
       </c>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19">
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28">
         <v>2011</v>
       </c>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19">
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28">
         <v>2012</v>
       </c>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19">
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28">
         <v>2013</v>
       </c>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19">
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28">
         <v>2014</v>
       </c>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19">
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="28">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="19">
+      <c r="AQ4" s="28"/>
+      <c r="AR4" s="28"/>
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="28">
         <v>2016</v>
       </c>
-      <c r="AU4" s="19"/>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="19"/>
-      <c r="AX4" s="19">
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28">
         <v>2017</v>
       </c>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="19"/>
-      <c r="BA4" s="19"/>
-      <c r="BB4" s="19">
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="28"/>
+      <c r="BA4" s="28"/>
+      <c r="BB4" s="28">
         <v>2018</v>
       </c>
-      <c r="BC4" s="19"/>
-      <c r="BD4" s="19"/>
-      <c r="BE4" s="19"/>
-      <c r="BF4" s="19">
+      <c r="BC4" s="28"/>
+      <c r="BD4" s="28"/>
+      <c r="BE4" s="28"/>
+      <c r="BF4" s="28">
         <v>2019</v>
       </c>
-      <c r="BG4" s="19"/>
-      <c r="BH4" s="19"/>
-      <c r="BI4" s="20"/>
-      <c r="BJ4" s="19">
+      <c r="BG4" s="28"/>
+      <c r="BH4" s="28"/>
+      <c r="BI4" s="31"/>
+      <c r="BJ4" s="28">
         <v>2020</v>
       </c>
-      <c r="BK4" s="19"/>
-      <c r="BL4" s="20"/>
-      <c r="BM4" s="19">
+      <c r="BK4" s="28"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="28">
         <v>2021</v>
       </c>
-      <c r="BN4" s="19"/>
+      <c r="BN4" s="28"/>
+      <c r="BO4" s="28"/>
     </row>
-    <row r="5" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+    <row r="5" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
       <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
@@ -1696,7 +1699,7 @@
       <c r="BK5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="BL5" s="28" t="s">
+      <c r="BL5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="BM5" s="16" t="s">
@@ -1705,8 +1708,11 @@
       <c r="BN5" s="16" t="s">
         <v>2</v>
       </c>
+      <c r="BO5" s="16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1766,17 +1772,18 @@
       <c r="BC6" s="10"/>
       <c r="BD6" s="10"/>
       <c r="BE6" s="10"/>
-      <c r="BF6" s="27"/>
-      <c r="BG6" s="27"/>
+      <c r="BF6" s="22"/>
+      <c r="BG6" s="22"/>
       <c r="BH6" s="10"/>
       <c r="BI6" s="10"/>
       <c r="BJ6" s="10"/>
       <c r="BK6" s="10"/>
       <c r="BL6" s="10"/>
-      <c r="BM6" s="31"/>
-      <c r="BN6" s="32"/>
+      <c r="BM6" s="26"/>
+      <c r="BN6" s="33"/>
+      <c r="BO6" s="27"/>
     </row>
-    <row r="7" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1954,19 +1961,19 @@
       <c r="BG7" s="11">
         <v>3734233</v>
       </c>
-      <c r="BH7" s="24">
+      <c r="BH7" s="19">
         <v>3761282</v>
       </c>
-      <c r="BI7" s="25">
+      <c r="BI7" s="20">
         <v>3772715</v>
       </c>
-      <c r="BJ7" s="26">
+      <c r="BJ7" s="21">
         <v>3778375</v>
       </c>
-      <c r="BK7" s="26">
+      <c r="BK7" s="21">
         <v>3576228</v>
       </c>
-      <c r="BL7" s="29">
+      <c r="BL7" s="24">
         <v>3654530</v>
       </c>
       <c r="BM7" s="15">
@@ -1975,8 +1982,11 @@
       <c r="BN7" s="15">
         <v>3824700</v>
       </c>
+      <c r="BO7" s="15">
+        <v>3825417</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2166,7 +2176,7 @@
       <c r="BK8" s="14">
         <v>437379</v>
       </c>
-      <c r="BL8" s="30">
+      <c r="BL8" s="25">
         <v>402304</v>
       </c>
       <c r="BM8" s="14">
@@ -2175,8 +2185,11 @@
       <c r="BN8" s="14">
         <v>519377</v>
       </c>
+      <c r="BO8" s="14">
+        <v>586916</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2366,7 +2379,7 @@
       <c r="BK9" s="14">
         <v>1374118</v>
       </c>
-      <c r="BL9" s="30">
+      <c r="BL9" s="25">
         <v>1409512</v>
       </c>
       <c r="BM9" s="14">
@@ -2375,8 +2388,11 @@
       <c r="BN9" s="14">
         <v>1607400</v>
       </c>
+      <c r="BO9" s="14">
+        <v>1533850</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2566,7 +2582,7 @@
       <c r="BK10" s="14">
         <v>882460</v>
       </c>
-      <c r="BL10" s="30">
+      <c r="BL10" s="25">
         <v>990487</v>
       </c>
       <c r="BM10" s="14">
@@ -2575,8 +2591,11 @@
       <c r="BN10" s="14">
         <v>862743</v>
       </c>
+      <c r="BO10" s="14">
+        <v>903130</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2766,7 +2785,7 @@
       <c r="BK11" s="14">
         <v>390866</v>
       </c>
-      <c r="BL11" s="30">
+      <c r="BL11" s="25">
         <v>381817</v>
       </c>
       <c r="BM11" s="14">
@@ -2775,8 +2794,11 @@
       <c r="BN11" s="14">
         <v>382310</v>
       </c>
+      <c r="BO11" s="14">
+        <v>336425</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -2966,7 +2988,7 @@
       <c r="BK12" s="14">
         <v>113754</v>
       </c>
-      <c r="BL12" s="30">
+      <c r="BL12" s="25">
         <v>124728</v>
       </c>
       <c r="BM12" s="14">
@@ -2975,8 +2997,11 @@
       <c r="BN12" s="14">
         <v>71216</v>
       </c>
+      <c r="BO12" s="14">
+        <v>90244</v>
+      </c>
     </row>
-    <row r="13" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -3166,7 +3191,7 @@
       <c r="BK13" s="14">
         <v>108989</v>
       </c>
-      <c r="BL13" s="30">
+      <c r="BL13" s="25">
         <v>103253</v>
       </c>
       <c r="BM13" s="14">
@@ -3175,8 +3200,11 @@
       <c r="BN13" s="14">
         <v>100693</v>
       </c>
+      <c r="BO13" s="14">
+        <v>98527</v>
+      </c>
     </row>
-    <row r="14" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -3366,7 +3394,7 @@
       <c r="BK14" s="14">
         <v>268662</v>
       </c>
-      <c r="BL14" s="30">
+      <c r="BL14" s="25">
         <v>242429</v>
       </c>
       <c r="BM14" s="14">
@@ -3375,75 +3403,78 @@
       <c r="BN14" s="14">
         <v>280961</v>
       </c>
+      <c r="BO14" s="14">
+        <v>276325</v>
+      </c>
     </row>
-    <row r="15" spans="1:66" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:67" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="21"/>
-      <c r="AP15" s="21"/>
-      <c r="AQ15" s="21"/>
-      <c r="AR15" s="21"/>
-      <c r="AS15" s="21"/>
-      <c r="AT15" s="21"/>
-      <c r="AU15" s="21"/>
-      <c r="AV15" s="21"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="21"/>
-      <c r="AZ15" s="21"/>
-      <c r="BA15" s="21"/>
-      <c r="BB15" s="21"/>
-      <c r="BC15" s="21"/>
-      <c r="BD15" s="21"/>
-      <c r="BE15" s="21"/>
-      <c r="BF15" s="21"/>
-      <c r="BG15" s="21"/>
-      <c r="BH15" s="21"/>
-      <c r="BI15" s="21"/>
-      <c r="BJ15" s="21"/>
-      <c r="BK15" s="21"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="32"/>
+      <c r="AR15" s="32"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="32"/>
+      <c r="AX15" s="32"/>
+      <c r="AY15" s="32"/>
+      <c r="AZ15" s="32"/>
+      <c r="BA15" s="32"/>
+      <c r="BB15" s="32"/>
+      <c r="BC15" s="32"/>
+      <c r="BD15" s="32"/>
+      <c r="BE15" s="32"/>
+      <c r="BF15" s="32"/>
+      <c r="BG15" s="32"/>
+      <c r="BH15" s="32"/>
+      <c r="BI15" s="32"/>
+      <c r="BJ15" s="32"/>
+      <c r="BK15" s="32"/>
     </row>
-    <row r="16" spans="1:66" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:67" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -3455,7 +3486,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="A15:BK15"/>
+    <mergeCell ref="BM4:BO4"/>
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
@@ -3471,10 +3506,6 @@
     <mergeCell ref="AH4:AK4"/>
     <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="A15:BK15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/pobocup_nivel-ingreso.xlsx
+++ b/Historicos/pobocup_nivel-ingreso.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
   <si>
     <t>Indicadores</t>
   </si>
@@ -98,7 +98,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - III trimestre de 2021</t>
+    <t>I trimestre 2005 - IV trimestre de 2021</t>
   </si>
 </sst>
 </file>
@@ -730,8 +730,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -840,10 +844,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -851,13 +859,15 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1203,11 +1213,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO17"/>
+  <dimension ref="A1:BP17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BS13" sqref="BS13"/>
+      <selection pane="topRight" activeCell="BK26" sqref="BK26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,11 +1285,11 @@
     <col min="61" max="61" width="18.140625" customWidth="1"/>
     <col min="62" max="64" width="17.140625" customWidth="1"/>
     <col min="65" max="65" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="17.5703125" customWidth="1"/>
-    <col min="67" max="67" width="19.85546875" customWidth="1"/>
+    <col min="66" max="67" width="17.5703125" customWidth="1"/>
+    <col min="68" max="68" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1341,12 +1351,12 @@
       <c r="BE1" s="2"/>
       <c r="BF1" s="2"/>
     </row>
-    <row r="2" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -1406,112 +1416,113 @@
       <c r="BE3" s="29"/>
       <c r="BF3" s="29"/>
     </row>
-    <row r="4" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>2005</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26">
         <v>2006</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26">
         <v>2007</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28">
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26">
         <v>2008</v>
       </c>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28">
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26">
         <v>2009</v>
       </c>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28">
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26">
         <v>2010</v>
       </c>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28">
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26">
         <v>2011</v>
       </c>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26">
         <v>2012</v>
       </c>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28">
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26">
         <v>2013</v>
       </c>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28">
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26">
         <v>2014</v>
       </c>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="28"/>
-      <c r="AP4" s="28">
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="28"/>
-      <c r="AR4" s="28"/>
-      <c r="AS4" s="28"/>
-      <c r="AT4" s="28">
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26">
         <v>2016</v>
       </c>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28">
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26">
         <v>2017</v>
       </c>
-      <c r="AY4" s="28"/>
-      <c r="AZ4" s="28"/>
-      <c r="BA4" s="28"/>
-      <c r="BB4" s="28">
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="26"/>
+      <c r="BB4" s="26">
         <v>2018</v>
       </c>
-      <c r="BC4" s="28"/>
-      <c r="BD4" s="28"/>
-      <c r="BE4" s="28"/>
-      <c r="BF4" s="28">
+      <c r="BC4" s="26"/>
+      <c r="BD4" s="26"/>
+      <c r="BE4" s="26"/>
+      <c r="BF4" s="26">
         <v>2019</v>
       </c>
-      <c r="BG4" s="28"/>
-      <c r="BH4" s="28"/>
-      <c r="BI4" s="31"/>
-      <c r="BJ4" s="28">
+      <c r="BG4" s="26"/>
+      <c r="BH4" s="26"/>
+      <c r="BI4" s="27"/>
+      <c r="BJ4" s="26">
         <v>2020</v>
       </c>
-      <c r="BK4" s="28"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="28">
+      <c r="BK4" s="26"/>
+      <c r="BL4" s="27"/>
+      <c r="BM4" s="26">
         <v>2021</v>
       </c>
-      <c r="BN4" s="28"/>
-      <c r="BO4" s="28"/>
+      <c r="BN4" s="26"/>
+      <c r="BO4" s="26"/>
+      <c r="BP4" s="26"/>
     </row>
-    <row r="5" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="16" t="s">
         <v>1</v>
@@ -1711,8 +1722,11 @@
       <c r="BO5" s="16" t="s">
         <v>3</v>
       </c>
+      <c r="BP5" s="16" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1779,11 +1793,12 @@
       <c r="BJ6" s="10"/>
       <c r="BK6" s="10"/>
       <c r="BL6" s="10"/>
-      <c r="BM6" s="26"/>
-      <c r="BN6" s="33"/>
-      <c r="BO6" s="27"/>
+      <c r="BM6" s="31"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
+      <c r="BP6" s="33"/>
     </row>
-    <row r="7" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1985,8 +2000,11 @@
       <c r="BO7" s="15">
         <v>3825417</v>
       </c>
+      <c r="BP7" s="15">
+        <v>3924612</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2188,8 +2206,11 @@
       <c r="BO8" s="14">
         <v>586916</v>
       </c>
+      <c r="BP8" s="14">
+        <v>559505</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2391,8 +2412,11 @@
       <c r="BO9" s="14">
         <v>1533850</v>
       </c>
+      <c r="BP9" s="14">
+        <v>1598111</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2594,8 +2618,11 @@
       <c r="BO10" s="14">
         <v>903130</v>
       </c>
+      <c r="BP10" s="14">
+        <v>908008</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2797,8 +2824,11 @@
       <c r="BO11" s="14">
         <v>336425</v>
       </c>
+      <c r="BP11" s="14">
+        <v>338002</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -3000,8 +3030,11 @@
       <c r="BO12" s="14">
         <v>90244</v>
       </c>
+      <c r="BP12" s="14">
+        <v>80937</v>
+      </c>
     </row>
-    <row r="13" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -3203,8 +3236,11 @@
       <c r="BO13" s="14">
         <v>98527</v>
       </c>
+      <c r="BP13" s="14">
+        <v>116861</v>
+      </c>
     </row>
-    <row r="14" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -3406,75 +3442,78 @@
       <c r="BO14" s="14">
         <v>276325</v>
       </c>
+      <c r="BP14" s="14">
+        <v>323188</v>
+      </c>
     </row>
-    <row r="15" spans="1:67" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+    <row r="15" spans="1:68" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="32"/>
-      <c r="AT15" s="32"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="32"/>
-      <c r="AW15" s="32"/>
-      <c r="AX15" s="32"/>
-      <c r="AY15" s="32"/>
-      <c r="AZ15" s="32"/>
-      <c r="BA15" s="32"/>
-      <c r="BB15" s="32"/>
-      <c r="BC15" s="32"/>
-      <c r="BD15" s="32"/>
-      <c r="BE15" s="32"/>
-      <c r="BF15" s="32"/>
-      <c r="BG15" s="32"/>
-      <c r="BH15" s="32"/>
-      <c r="BI15" s="32"/>
-      <c r="BJ15" s="32"/>
-      <c r="BK15" s="32"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="28"/>
+      <c r="AU15" s="28"/>
+      <c r="AV15" s="28"/>
+      <c r="AW15" s="28"/>
+      <c r="AX15" s="28"/>
+      <c r="AY15" s="28"/>
+      <c r="AZ15" s="28"/>
+      <c r="BA15" s="28"/>
+      <c r="BB15" s="28"/>
+      <c r="BC15" s="28"/>
+      <c r="BD15" s="28"/>
+      <c r="BE15" s="28"/>
+      <c r="BF15" s="28"/>
+      <c r="BG15" s="28"/>
+      <c r="BH15" s="28"/>
+      <c r="BI15" s="28"/>
+      <c r="BJ15" s="28"/>
+      <c r="BK15" s="28"/>
     </row>
-    <row r="16" spans="1:67" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -3485,12 +3524,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="A15:BK15"/>
-    <mergeCell ref="BM4:BO4"/>
+  <mergeCells count="21">
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
@@ -3506,6 +3540,12 @@
     <mergeCell ref="AH4:AK4"/>
     <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="A15:BK15"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="BM6:BP6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/pobocup_nivel-ingreso.xlsx
+++ b/Historicos/pobocup_nivel-ingreso.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12294"/>
   </bookViews>
   <sheets>
     <sheet name="pob ocupada nivel ingreso" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="19">
   <si>
     <t>Indicadores</t>
   </si>
@@ -98,7 +98,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - IV trimestre de 2021</t>
+    <t>I trimestre 2005 - I trimestre de 2022</t>
   </si>
 </sst>
 </file>
@@ -783,7 +783,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -847,17 +847,23 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1213,83 +1219,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP17"/>
+  <dimension ref="A1:BQ17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BK26" sqref="BK26"/>
+      <selection pane="topRight" activeCell="BS9" sqref="BS9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.140625" customWidth="1"/>
-    <col min="62" max="64" width="17.140625" customWidth="1"/>
-    <col min="65" max="65" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="17.5703125" customWidth="1"/>
-    <col min="68" max="68" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.125" customWidth="1"/>
+    <col min="62" max="64" width="17.125" customWidth="1"/>
+    <col min="65" max="65" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="17.625" customWidth="1"/>
+    <col min="68" max="68" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1351,178 +1358,181 @@
       <c r="BE1" s="2"/>
       <c r="BF1" s="2"/>
     </row>
-    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="29"/>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="29"/>
-      <c r="AV3" s="29"/>
-      <c r="AW3" s="29"/>
-      <c r="AX3" s="29"/>
-      <c r="AY3" s="29"/>
-      <c r="AZ3" s="29"/>
-      <c r="BA3" s="29"/>
-      <c r="BB3" s="29"/>
-      <c r="BC3" s="29"/>
-      <c r="BD3" s="29"/>
-      <c r="BE3" s="29"/>
-      <c r="BF3" s="29"/>
+    <row r="3" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="28"/>
+      <c r="BA3" s="28"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="28"/>
+      <c r="BD3" s="28"/>
+      <c r="BE3" s="28"/>
+      <c r="BF3" s="28"/>
     </row>
-    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="29">
         <v>2005</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29">
         <v>2006</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29">
         <v>2007</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26">
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29">
         <v>2008</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26">
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29">
         <v>2009</v>
       </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26">
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29">
         <v>2010</v>
       </c>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26">
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29">
         <v>2011</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26">
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29">
         <v>2012</v>
       </c>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26">
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29">
         <v>2013</v>
       </c>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26">
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29">
         <v>2014</v>
       </c>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26">
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="29">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26">
+      <c r="AQ4" s="29"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="29">
         <v>2016</v>
       </c>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="26">
+      <c r="AU4" s="29"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="29"/>
+      <c r="AX4" s="29">
         <v>2017</v>
       </c>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="26"/>
-      <c r="BB4" s="26">
+      <c r="AY4" s="29"/>
+      <c r="AZ4" s="29"/>
+      <c r="BA4" s="29"/>
+      <c r="BB4" s="29">
         <v>2018</v>
       </c>
-      <c r="BC4" s="26"/>
-      <c r="BD4" s="26"/>
-      <c r="BE4" s="26"/>
-      <c r="BF4" s="26">
+      <c r="BC4" s="29"/>
+      <c r="BD4" s="29"/>
+      <c r="BE4" s="29"/>
+      <c r="BF4" s="29">
         <v>2019</v>
       </c>
-      <c r="BG4" s="26"/>
-      <c r="BH4" s="26"/>
-      <c r="BI4" s="27"/>
-      <c r="BJ4" s="26">
+      <c r="BG4" s="29"/>
+      <c r="BH4" s="29"/>
+      <c r="BI4" s="31"/>
+      <c r="BJ4" s="29">
         <v>2020</v>
       </c>
-      <c r="BK4" s="26"/>
-      <c r="BL4" s="27"/>
-      <c r="BM4" s="26">
+      <c r="BK4" s="29"/>
+      <c r="BL4" s="31"/>
+      <c r="BM4" s="29">
         <v>2021</v>
       </c>
-      <c r="BN4" s="26"/>
-      <c r="BO4" s="26"/>
-      <c r="BP4" s="26"/>
+      <c r="BN4" s="29"/>
+      <c r="BO4" s="29"/>
+      <c r="BP4" s="29"/>
+      <c r="BQ4" s="26">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="16" t="s">
         <v>1</v>
@@ -1725,8 +1735,11 @@
       <c r="BP5" s="16" t="s">
         <v>4</v>
       </c>
+      <c r="BQ5" s="16" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1793,12 +1806,13 @@
       <c r="BJ6" s="10"/>
       <c r="BK6" s="10"/>
       <c r="BL6" s="10"/>
-      <c r="BM6" s="31"/>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
-      <c r="BP6" s="33"/>
+      <c r="BM6" s="33"/>
+      <c r="BN6" s="34"/>
+      <c r="BO6" s="34"/>
+      <c r="BP6" s="35"/>
+      <c r="BQ6" s="27"/>
     </row>
-    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2003,8 +2017,11 @@
       <c r="BP7" s="15">
         <v>3924612</v>
       </c>
+      <c r="BQ7" s="15">
+        <v>3943727</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2209,8 +2226,11 @@
       <c r="BP8" s="14">
         <v>559505</v>
       </c>
+      <c r="BQ8" s="14">
+        <v>928729</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2415,8 +2435,11 @@
       <c r="BP9" s="14">
         <v>1598111</v>
       </c>
+      <c r="BQ9" s="14">
+        <v>1599929</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2621,8 +2644,11 @@
       <c r="BP10" s="14">
         <v>908008</v>
       </c>
+      <c r="BQ10" s="14">
+        <v>747752</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2827,8 +2853,11 @@
       <c r="BP11" s="14">
         <v>338002</v>
       </c>
+      <c r="BQ11" s="14">
+        <v>202806</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -3033,8 +3062,11 @@
       <c r="BP12" s="14">
         <v>80937</v>
       </c>
+      <c r="BQ12" s="14">
+        <v>63654</v>
+      </c>
     </row>
-    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -3239,8 +3271,11 @@
       <c r="BP13" s="14">
         <v>116861</v>
       </c>
+      <c r="BQ13" s="14">
+        <v>104806</v>
+      </c>
     </row>
-    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -3445,75 +3480,78 @@
       <c r="BP14" s="14">
         <v>323188</v>
       </c>
+      <c r="BQ14" s="14">
+        <v>296051</v>
+      </c>
     </row>
-    <row r="15" spans="1:68" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="28"/>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="28"/>
-      <c r="AO15" s="28"/>
-      <c r="AP15" s="28"/>
-      <c r="AQ15" s="28"/>
-      <c r="AR15" s="28"/>
-      <c r="AS15" s="28"/>
-      <c r="AT15" s="28"/>
-      <c r="AU15" s="28"/>
-      <c r="AV15" s="28"/>
-      <c r="AW15" s="28"/>
-      <c r="AX15" s="28"/>
-      <c r="AY15" s="28"/>
-      <c r="AZ15" s="28"/>
-      <c r="BA15" s="28"/>
-      <c r="BB15" s="28"/>
-      <c r="BC15" s="28"/>
-      <c r="BD15" s="28"/>
-      <c r="BE15" s="28"/>
-      <c r="BF15" s="28"/>
-      <c r="BG15" s="28"/>
-      <c r="BH15" s="28"/>
-      <c r="BI15" s="28"/>
-      <c r="BJ15" s="28"/>
-      <c r="BK15" s="28"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="32"/>
+      <c r="AR15" s="32"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="32"/>
+      <c r="AX15" s="32"/>
+      <c r="AY15" s="32"/>
+      <c r="AZ15" s="32"/>
+      <c r="BA15" s="32"/>
+      <c r="BB15" s="32"/>
+      <c r="BC15" s="32"/>
+      <c r="BD15" s="32"/>
+      <c r="BE15" s="32"/>
+      <c r="BF15" s="32"/>
+      <c r="BG15" s="32"/>
+      <c r="BH15" s="32"/>
+      <c r="BI15" s="32"/>
+      <c r="BJ15" s="32"/>
+      <c r="BK15" s="32"/>
     </row>
-    <row r="16" spans="1:68" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -3525,6 +3563,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="A15:BK15"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="BM6:BP6"/>
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
@@ -3541,11 +3584,6 @@
     <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="BF4:BI4"/>
     <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="A15:BK15"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="BM6:BP6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/pobocup_nivel-ingreso.xlsx
+++ b/Historicos/pobocup_nivel-ingreso.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
   <si>
     <t>Indicadores</t>
   </si>
@@ -98,7 +98,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - I trimestre de 2022</t>
+    <t>I trimestre 2005 - II trimestre de 2022</t>
   </si>
 </sst>
 </file>
@@ -783,7 +783,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -847,18 +847,6 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -872,6 +860,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1219,11 +1216,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ17"/>
+  <dimension ref="A1:BR17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BS9" sqref="BS9"/>
+      <selection pane="topRight" activeCell="BR8" sqref="BR8:BR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1294,9 +1291,10 @@
     <col min="66" max="67" width="17.625" customWidth="1"/>
     <col min="68" max="68" width="15.625" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="15.625" customWidth="1"/>
+    <col min="70" max="70" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1358,182 +1356,183 @@
       <c r="BE1" s="2"/>
       <c r="BF1" s="2"/>
     </row>
-    <row r="2" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="28"/>
-      <c r="AY3" s="28"/>
-      <c r="AZ3" s="28"/>
-      <c r="BA3" s="28"/>
-      <c r="BB3" s="28"/>
-      <c r="BC3" s="28"/>
-      <c r="BD3" s="28"/>
-      <c r="BE3" s="28"/>
-      <c r="BF3" s="28"/>
+    <row r="3" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="32"/>
+      <c r="BD3" s="32"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="32"/>
     </row>
-    <row r="4" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="26">
         <v>2005</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26">
         <v>2006</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26">
         <v>2007</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29">
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26">
         <v>2008</v>
       </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29">
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26">
         <v>2009</v>
       </c>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29">
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26">
         <v>2010</v>
       </c>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29">
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26">
         <v>2011</v>
       </c>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26">
         <v>2012</v>
       </c>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29">
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26">
         <v>2013</v>
       </c>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29">
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26">
         <v>2014</v>
       </c>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="29">
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="29"/>
-      <c r="AR4" s="29"/>
-      <c r="AS4" s="29"/>
-      <c r="AT4" s="29">
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26">
         <v>2016</v>
       </c>
-      <c r="AU4" s="29"/>
-      <c r="AV4" s="29"/>
-      <c r="AW4" s="29"/>
-      <c r="AX4" s="29">
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26">
         <v>2017</v>
       </c>
-      <c r="AY4" s="29"/>
-      <c r="AZ4" s="29"/>
-      <c r="BA4" s="29"/>
-      <c r="BB4" s="29">
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="26"/>
+      <c r="BB4" s="26">
         <v>2018</v>
       </c>
-      <c r="BC4" s="29"/>
-      <c r="BD4" s="29"/>
-      <c r="BE4" s="29"/>
-      <c r="BF4" s="29">
+      <c r="BC4" s="26"/>
+      <c r="BD4" s="26"/>
+      <c r="BE4" s="26"/>
+      <c r="BF4" s="26">
         <v>2019</v>
       </c>
-      <c r="BG4" s="29"/>
-      <c r="BH4" s="29"/>
-      <c r="BI4" s="31"/>
-      <c r="BJ4" s="29">
+      <c r="BG4" s="26"/>
+      <c r="BH4" s="26"/>
+      <c r="BI4" s="27"/>
+      <c r="BJ4" s="26">
         <v>2020</v>
       </c>
-      <c r="BK4" s="29"/>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="29">
+      <c r="BK4" s="26"/>
+      <c r="BL4" s="27"/>
+      <c r="BM4" s="26">
         <v>2021</v>
       </c>
-      <c r="BN4" s="29"/>
-      <c r="BO4" s="29"/>
-      <c r="BP4" s="29"/>
-      <c r="BQ4" s="26">
+      <c r="BN4" s="26"/>
+      <c r="BO4" s="26"/>
+      <c r="BP4" s="26"/>
+      <c r="BQ4" s="27">
         <v>2022</v>
       </c>
+      <c r="BR4" s="34"/>
     </row>
-    <row r="5" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+    <row r="5" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
       <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
@@ -1738,8 +1737,11 @@
       <c r="BQ5" s="16" t="s">
         <v>1</v>
       </c>
+      <c r="BR5" s="16" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1806,13 +1808,14 @@
       <c r="BJ6" s="10"/>
       <c r="BK6" s="10"/>
       <c r="BL6" s="10"/>
-      <c r="BM6" s="33"/>
-      <c r="BN6" s="34"/>
-      <c r="BO6" s="34"/>
-      <c r="BP6" s="35"/>
-      <c r="BQ6" s="27"/>
+      <c r="BM6" s="29"/>
+      <c r="BN6" s="30"/>
+      <c r="BO6" s="30"/>
+      <c r="BP6" s="31"/>
+      <c r="BQ6" s="29"/>
+      <c r="BR6" s="30"/>
     </row>
-    <row r="7" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2020,8 +2023,11 @@
       <c r="BQ7" s="15">
         <v>3943727</v>
       </c>
+      <c r="BR7" s="15">
+        <v>3973378</v>
+      </c>
     </row>
-    <row r="8" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2229,8 +2235,11 @@
       <c r="BQ8" s="14">
         <v>928729</v>
       </c>
+      <c r="BR8" s="14">
+        <v>794214</v>
+      </c>
     </row>
-    <row r="9" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2438,8 +2447,11 @@
       <c r="BQ9" s="14">
         <v>1599929</v>
       </c>
+      <c r="BR9" s="14">
+        <v>1796548</v>
+      </c>
     </row>
-    <row r="10" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2647,8 +2659,11 @@
       <c r="BQ10" s="14">
         <v>747752</v>
       </c>
+      <c r="BR10" s="14">
+        <v>737608</v>
+      </c>
     </row>
-    <row r="11" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2856,8 +2871,11 @@
       <c r="BQ11" s="14">
         <v>202806</v>
       </c>
+      <c r="BR11" s="14">
+        <v>189327</v>
+      </c>
     </row>
-    <row r="12" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -3065,8 +3083,11 @@
       <c r="BQ12" s="14">
         <v>63654</v>
       </c>
+      <c r="BR12" s="14">
+        <v>57514</v>
+      </c>
     </row>
-    <row r="13" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -3274,8 +3295,11 @@
       <c r="BQ13" s="14">
         <v>104806</v>
       </c>
+      <c r="BR13" s="14">
+        <v>90111</v>
+      </c>
     </row>
-    <row r="14" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -3483,75 +3507,78 @@
       <c r="BQ14" s="14">
         <v>296051</v>
       </c>
+      <c r="BR14" s="14">
+        <v>308056</v>
+      </c>
     </row>
-    <row r="15" spans="1:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+    <row r="15" spans="1:70" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="32"/>
-      <c r="AT15" s="32"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="32"/>
-      <c r="AW15" s="32"/>
-      <c r="AX15" s="32"/>
-      <c r="AY15" s="32"/>
-      <c r="AZ15" s="32"/>
-      <c r="BA15" s="32"/>
-      <c r="BB15" s="32"/>
-      <c r="BC15" s="32"/>
-      <c r="BD15" s="32"/>
-      <c r="BE15" s="32"/>
-      <c r="BF15" s="32"/>
-      <c r="BG15" s="32"/>
-      <c r="BH15" s="32"/>
-      <c r="BI15" s="32"/>
-      <c r="BJ15" s="32"/>
-      <c r="BK15" s="32"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="28"/>
+      <c r="AU15" s="28"/>
+      <c r="AV15" s="28"/>
+      <c r="AW15" s="28"/>
+      <c r="AX15" s="28"/>
+      <c r="AY15" s="28"/>
+      <c r="AZ15" s="28"/>
+      <c r="BA15" s="28"/>
+      <c r="BB15" s="28"/>
+      <c r="BC15" s="28"/>
+      <c r="BD15" s="28"/>
+      <c r="BE15" s="28"/>
+      <c r="BF15" s="28"/>
+      <c r="BG15" s="28"/>
+      <c r="BH15" s="28"/>
+      <c r="BI15" s="28"/>
+      <c r="BJ15" s="28"/>
+      <c r="BK15" s="28"/>
     </row>
-    <row r="16" spans="1:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -3562,12 +3589,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="A15:BK15"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="BM6:BP6"/>
+  <mergeCells count="23">
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BQ6:BR6"/>
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
@@ -3584,6 +3608,11 @@
     <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="BF4:BI4"/>
     <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="A15:BK15"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="BM6:BP6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/pobocup_nivel-ingreso.xlsx
+++ b/Historicos/pobocup_nivel-ingreso.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
   <si>
     <t>Indicadores</t>
   </si>
@@ -98,7 +98,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - II trimestre de 2022</t>
+    <t>I trimestre 2005 - III trimestre de 2022</t>
   </si>
 </sst>
 </file>
@@ -783,7 +783,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -847,12 +847,6 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -862,14 +856,23 @@
     <xf numFmtId="0" fontId="16" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1216,11 +1219,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR17"/>
+  <dimension ref="A1:BS17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BR8" sqref="BR8:BR14"/>
+      <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BS11" sqref="BS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1290,11 +1293,11 @@
     <col min="65" max="65" width="15.75" bestFit="1" customWidth="1"/>
     <col min="66" max="67" width="17.625" customWidth="1"/>
     <col min="68" max="68" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="15.625" customWidth="1"/>
-    <col min="70" max="70" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="15.625" customWidth="1"/>
+    <col min="71" max="71" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1356,73 +1359,73 @@
       <c r="BE1" s="2"/>
       <c r="BF1" s="2"/>
     </row>
-    <row r="2" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="32"/>
-      <c r="AT3" s="32"/>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="32"/>
-      <c r="AX3" s="32"/>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="32"/>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="32"/>
-      <c r="BC3" s="32"/>
-      <c r="BD3" s="32"/>
-      <c r="BE3" s="32"/>
-      <c r="BF3" s="32"/>
+    <row r="3" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="34"/>
+      <c r="AX3" s="34"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="34"/>
+      <c r="BD3" s="34"/>
+      <c r="BE3" s="34"/>
+      <c r="BF3" s="34"/>
     </row>
-    <row r="4" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="26">
@@ -1514,25 +1517,26 @@
       </c>
       <c r="BG4" s="26"/>
       <c r="BH4" s="26"/>
-      <c r="BI4" s="27"/>
+      <c r="BI4" s="30"/>
       <c r="BJ4" s="26">
         <v>2020</v>
       </c>
       <c r="BK4" s="26"/>
-      <c r="BL4" s="27"/>
+      <c r="BL4" s="30"/>
       <c r="BM4" s="26">
         <v>2021</v>
       </c>
       <c r="BN4" s="26"/>
       <c r="BO4" s="26"/>
       <c r="BP4" s="26"/>
-      <c r="BQ4" s="27">
+      <c r="BQ4" s="30">
         <v>2022</v>
       </c>
-      <c r="BR4" s="34"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="33"/>
     </row>
-    <row r="5" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+    <row r="5" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
       <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
@@ -1740,8 +1744,11 @@
       <c r="BR5" s="16" t="s">
         <v>2</v>
       </c>
+      <c r="BS5" s="16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1808,14 +1815,15 @@
       <c r="BJ6" s="10"/>
       <c r="BK6" s="10"/>
       <c r="BL6" s="10"/>
-      <c r="BM6" s="29"/>
-      <c r="BN6" s="30"/>
-      <c r="BO6" s="30"/>
-      <c r="BP6" s="31"/>
-      <c r="BQ6" s="29"/>
-      <c r="BR6" s="30"/>
+      <c r="BM6" s="27"/>
+      <c r="BN6" s="28"/>
+      <c r="BO6" s="28"/>
+      <c r="BP6" s="29"/>
+      <c r="BQ6" s="27"/>
+      <c r="BR6" s="28"/>
+      <c r="BS6" s="28"/>
     </row>
-    <row r="7" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2026,8 +2034,11 @@
       <c r="BR7" s="15">
         <v>3973378</v>
       </c>
+      <c r="BS7" s="15">
+        <v>4023627</v>
+      </c>
     </row>
-    <row r="8" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2238,8 +2249,11 @@
       <c r="BR8" s="14">
         <v>794214</v>
       </c>
+      <c r="BS8" s="14">
+        <v>719033</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2450,8 +2464,11 @@
       <c r="BR9" s="14">
         <v>1796548</v>
       </c>
+      <c r="BS9" s="14">
+        <v>1791060</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2662,8 +2679,11 @@
       <c r="BR10" s="14">
         <v>737608</v>
       </c>
+      <c r="BS10" s="14">
+        <v>766523</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2874,8 +2894,11 @@
       <c r="BR11" s="14">
         <v>189327</v>
       </c>
+      <c r="BS11" s="14">
+        <v>189444</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -3086,8 +3109,11 @@
       <c r="BR12" s="14">
         <v>57514</v>
       </c>
+      <c r="BS12" s="14">
+        <v>49246</v>
+      </c>
     </row>
-    <row r="13" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -3298,8 +3324,11 @@
       <c r="BR13" s="14">
         <v>90111</v>
       </c>
+      <c r="BS13" s="14">
+        <v>121865</v>
+      </c>
     </row>
-    <row r="14" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -3510,75 +3539,78 @@
       <c r="BR14" s="14">
         <v>308056</v>
       </c>
+      <c r="BS14" s="14">
+        <v>386456</v>
+      </c>
     </row>
-    <row r="15" spans="1:70" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:71" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="28"/>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="28"/>
-      <c r="AO15" s="28"/>
-      <c r="AP15" s="28"/>
-      <c r="AQ15" s="28"/>
-      <c r="AR15" s="28"/>
-      <c r="AS15" s="28"/>
-      <c r="AT15" s="28"/>
-      <c r="AU15" s="28"/>
-      <c r="AV15" s="28"/>
-      <c r="AW15" s="28"/>
-      <c r="AX15" s="28"/>
-      <c r="AY15" s="28"/>
-      <c r="AZ15" s="28"/>
-      <c r="BA15" s="28"/>
-      <c r="BB15" s="28"/>
-      <c r="BC15" s="28"/>
-      <c r="BD15" s="28"/>
-      <c r="BE15" s="28"/>
-      <c r="BF15" s="28"/>
-      <c r="BG15" s="28"/>
-      <c r="BH15" s="28"/>
-      <c r="BI15" s="28"/>
-      <c r="BJ15" s="28"/>
-      <c r="BK15" s="28"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="31"/>
+      <c r="AR15" s="31"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="31"/>
+      <c r="AW15" s="31"/>
+      <c r="AX15" s="31"/>
+      <c r="AY15" s="31"/>
+      <c r="AZ15" s="31"/>
+      <c r="BA15" s="31"/>
+      <c r="BB15" s="31"/>
+      <c r="BC15" s="31"/>
+      <c r="BD15" s="31"/>
+      <c r="BE15" s="31"/>
+      <c r="BF15" s="31"/>
+      <c r="BG15" s="31"/>
+      <c r="BH15" s="31"/>
+      <c r="BI15" s="31"/>
+      <c r="BJ15" s="31"/>
+      <c r="BK15" s="31"/>
     </row>
-    <row r="16" spans="1:70" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:71" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -3590,8 +3622,10 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BQ6:BR6"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="A15:BK15"/>
+    <mergeCell ref="BQ4:BS4"/>
+    <mergeCell ref="BQ6:BS6"/>
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
@@ -3605,14 +3639,12 @@
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="BM6:BP6"/>
     <mergeCell ref="BF4:BI4"/>
     <mergeCell ref="AP4:AS4"/>
     <mergeCell ref="AT4:AW4"/>
     <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="A15:BK15"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="BM6:BP6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/pobocup_nivel-ingreso.xlsx
+++ b/Historicos/pobocup_nivel-ingreso.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="19">
   <si>
     <t>Indicadores</t>
   </si>
@@ -98,7 +98,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - III trimestre de 2022</t>
+    <t>I trimestre 2005 - IV trimestre de 2022</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -738,6 +738,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -783,7 +814,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -847,25 +878,16 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -873,6 +895,24 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1219,11 +1259,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS17"/>
+  <dimension ref="A1:BT17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BS11" sqref="BS11"/>
+      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BQ22" sqref="BQ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1295,9 +1335,10 @@
     <col min="68" max="68" width="15.625" bestFit="1" customWidth="1"/>
     <col min="69" max="70" width="15.625" customWidth="1"/>
     <col min="71" max="71" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1359,73 +1400,73 @@
       <c r="BE1" s="2"/>
       <c r="BF1" s="2"/>
     </row>
-    <row r="2" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="34"/>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="34"/>
-      <c r="AV3" s="34"/>
-      <c r="AW3" s="34"/>
-      <c r="AX3" s="34"/>
-      <c r="AY3" s="34"/>
-      <c r="AZ3" s="34"/>
-      <c r="BA3" s="34"/>
-      <c r="BB3" s="34"/>
-      <c r="BC3" s="34"/>
-      <c r="BD3" s="34"/>
-      <c r="BE3" s="34"/>
-      <c r="BF3" s="34"/>
+    <row r="3" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="31"/>
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="31"/>
+      <c r="AZ3" s="31"/>
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="31"/>
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="31"/>
+      <c r="BF3" s="31"/>
     </row>
-    <row r="4" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="26">
@@ -1517,26 +1558,27 @@
       </c>
       <c r="BG4" s="26"/>
       <c r="BH4" s="26"/>
-      <c r="BI4" s="30"/>
+      <c r="BI4" s="28"/>
       <c r="BJ4" s="26">
         <v>2020</v>
       </c>
       <c r="BK4" s="26"/>
-      <c r="BL4" s="30"/>
+      <c r="BL4" s="28"/>
       <c r="BM4" s="26">
         <v>2021</v>
       </c>
       <c r="BN4" s="26"/>
       <c r="BO4" s="26"/>
       <c r="BP4" s="26"/>
-      <c r="BQ4" s="30">
+      <c r="BQ4" s="34">
         <v>2022</v>
       </c>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="33"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="36"/>
     </row>
-    <row r="5" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
       <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
@@ -1735,20 +1777,23 @@
       <c r="BO5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="BP5" s="16" t="s">
+      <c r="BP5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="BQ5" s="16" t="s">
+      <c r="BQ5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="BR5" s="16" t="s">
+      <c r="BR5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="BS5" s="16" t="s">
+      <c r="BS5" s="37" t="s">
         <v>3</v>
       </c>
+      <c r="BT5" s="38" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1815,15 +1860,16 @@
       <c r="BJ6" s="10"/>
       <c r="BK6" s="10"/>
       <c r="BL6" s="10"/>
-      <c r="BM6" s="27"/>
-      <c r="BN6" s="28"/>
-      <c r="BO6" s="28"/>
-      <c r="BP6" s="29"/>
-      <c r="BQ6" s="27"/>
-      <c r="BR6" s="28"/>
-      <c r="BS6" s="28"/>
+      <c r="BM6" s="29"/>
+      <c r="BN6" s="30"/>
+      <c r="BO6" s="30"/>
+      <c r="BP6" s="33"/>
+      <c r="BQ6" s="29"/>
+      <c r="BR6" s="30"/>
+      <c r="BS6" s="30"/>
+      <c r="BT6" s="33"/>
     </row>
-    <row r="7" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2037,8 +2083,11 @@
       <c r="BS7" s="15">
         <v>4023627</v>
       </c>
+      <c r="BT7" s="15">
+        <v>4066247</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2252,8 +2301,11 @@
       <c r="BS8" s="14">
         <v>719033</v>
       </c>
+      <c r="BT8" s="14">
+        <v>683853</v>
+      </c>
     </row>
-    <row r="9" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2467,8 +2519,11 @@
       <c r="BS9" s="14">
         <v>1791060</v>
       </c>
+      <c r="BT9" s="14">
+        <v>1719229</v>
+      </c>
     </row>
-    <row r="10" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2682,8 +2737,11 @@
       <c r="BS10" s="14">
         <v>766523</v>
       </c>
+      <c r="BT10" s="14">
+        <v>817254</v>
+      </c>
     </row>
-    <row r="11" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2897,8 +2955,11 @@
       <c r="BS11" s="14">
         <v>189444</v>
       </c>
+      <c r="BT11" s="14">
+        <v>208342</v>
+      </c>
     </row>
-    <row r="12" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -3112,8 +3173,11 @@
       <c r="BS12" s="14">
         <v>49246</v>
       </c>
+      <c r="BT12" s="14">
+        <v>69384</v>
+      </c>
     </row>
-    <row r="13" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -3327,8 +3391,11 @@
       <c r="BS13" s="14">
         <v>121865</v>
       </c>
+      <c r="BT13" s="14">
+        <v>118435</v>
+      </c>
     </row>
-    <row r="14" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -3542,75 +3609,78 @@
       <c r="BS14" s="14">
         <v>386456</v>
       </c>
+      <c r="BT14" s="14">
+        <v>449750</v>
+      </c>
     </row>
-    <row r="15" spans="1:71" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+    <row r="15" spans="1:72" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="31"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="31"/>
-      <c r="AP15" s="31"/>
-      <c r="AQ15" s="31"/>
-      <c r="AR15" s="31"/>
-      <c r="AS15" s="31"/>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="31"/>
-      <c r="AV15" s="31"/>
-      <c r="AW15" s="31"/>
-      <c r="AX15" s="31"/>
-      <c r="AY15" s="31"/>
-      <c r="AZ15" s="31"/>
-      <c r="BA15" s="31"/>
-      <c r="BB15" s="31"/>
-      <c r="BC15" s="31"/>
-      <c r="BD15" s="31"/>
-      <c r="BE15" s="31"/>
-      <c r="BF15" s="31"/>
-      <c r="BG15" s="31"/>
-      <c r="BH15" s="31"/>
-      <c r="BI15" s="31"/>
-      <c r="BJ15" s="31"/>
-      <c r="BK15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="27"/>
+      <c r="AP15" s="27"/>
+      <c r="AQ15" s="27"/>
+      <c r="AR15" s="27"/>
+      <c r="AS15" s="27"/>
+      <c r="AT15" s="27"/>
+      <c r="AU15" s="27"/>
+      <c r="AV15" s="27"/>
+      <c r="AW15" s="27"/>
+      <c r="AX15" s="27"/>
+      <c r="AY15" s="27"/>
+      <c r="AZ15" s="27"/>
+      <c r="BA15" s="27"/>
+      <c r="BB15" s="27"/>
+      <c r="BC15" s="27"/>
+      <c r="BD15" s="27"/>
+      <c r="BE15" s="27"/>
+      <c r="BF15" s="27"/>
+      <c r="BG15" s="27"/>
+      <c r="BH15" s="27"/>
+      <c r="BI15" s="27"/>
+      <c r="BJ15" s="27"/>
+      <c r="BK15" s="27"/>
     </row>
-    <row r="16" spans="1:71" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:72" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -3622,10 +3692,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="BQ6:BT6"/>
+    <mergeCell ref="BQ4:BT4"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="BM6:BP6"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
     <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="A15:BK15"/>
-    <mergeCell ref="BQ4:BS4"/>
-    <mergeCell ref="BQ6:BS6"/>
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
@@ -3638,13 +3715,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="BM6:BP6"/>
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/pobocup_nivel-ingreso.xlsx
+++ b/Historicos/pobocup_nivel-ingreso.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78B13FD-E937-46A0-A169-3CBA751E85F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12294"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pob ocupada nivel ingreso" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="19">
   <si>
     <t>Indicadores</t>
   </si>
@@ -98,13 +99,13 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - IV trimestre de 2022</t>
+    <t>I trimestre 2005 - I trimestre de 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -769,6 +770,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -816,15 +830,14 @@
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,10 +846,10 @@
     <xf numFmtId="3" fontId="16" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -852,8 +865,7 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -865,7 +877,7 @@
     <xf numFmtId="3" fontId="16" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,13 +887,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -889,12 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -908,10 +911,25 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1048,6 +1066,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1083,6 +1118,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1258,2450 +1310,2472 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BU17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BQ22" sqref="BQ22"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BY16" sqref="BY16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.125" customWidth="1"/>
-    <col min="62" max="64" width="17.125" customWidth="1"/>
-    <col min="65" max="65" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="17.625" customWidth="1"/>
-    <col min="68" max="68" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="15.625" customWidth="1"/>
-    <col min="71" max="71" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.109375" customWidth="1"/>
+    <col min="62" max="64" width="17.109375" customWidth="1"/>
+    <col min="65" max="65" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="17.6640625" customWidth="1"/>
+    <col min="68" max="68" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="15.6640625" customWidth="1"/>
+    <col min="71" max="71" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="31"/>
-      <c r="AV3" s="31"/>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="31"/>
-      <c r="AY3" s="31"/>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="31"/>
-      <c r="BD3" s="31"/>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="31"/>
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="35"/>
+      <c r="AS3" s="35"/>
+      <c r="AT3" s="35"/>
+      <c r="AU3" s="35"/>
+      <c r="AV3" s="35"/>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="35"/>
+      <c r="AY3" s="35"/>
+      <c r="AZ3" s="35"/>
+      <c r="BA3" s="35"/>
+      <c r="BB3" s="35"/>
+      <c r="BC3" s="35"/>
+      <c r="BD3" s="35"/>
+      <c r="BE3" s="35"/>
+      <c r="BF3" s="35"/>
     </row>
-    <row r="4" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="32">
         <v>2005</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26">
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32">
         <v>2006</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26">
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32">
         <v>2007</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26">
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32">
         <v>2008</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26">
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32">
         <v>2009</v>
       </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26">
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32">
         <v>2010</v>
       </c>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26">
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32">
         <v>2011</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26">
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32">
         <v>2012</v>
       </c>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26">
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32">
         <v>2013</v>
       </c>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26">
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32">
         <v>2014</v>
       </c>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26">
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26">
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="32">
         <v>2016</v>
       </c>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="26">
+      <c r="AU4" s="32"/>
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32">
         <v>2017</v>
       </c>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="26"/>
-      <c r="BB4" s="26">
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32"/>
+      <c r="BB4" s="32">
         <v>2018</v>
       </c>
-      <c r="BC4" s="26"/>
-      <c r="BD4" s="26"/>
-      <c r="BE4" s="26"/>
-      <c r="BF4" s="26">
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32">
         <v>2019</v>
       </c>
-      <c r="BG4" s="26"/>
-      <c r="BH4" s="26"/>
-      <c r="BI4" s="28"/>
-      <c r="BJ4" s="26">
+      <c r="BG4" s="32"/>
+      <c r="BH4" s="32"/>
+      <c r="BI4" s="33"/>
+      <c r="BJ4" s="32">
         <v>2020</v>
       </c>
-      <c r="BK4" s="26"/>
-      <c r="BL4" s="28"/>
-      <c r="BM4" s="26">
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="33"/>
+      <c r="BM4" s="32">
         <v>2021</v>
       </c>
-      <c r="BN4" s="26"/>
-      <c r="BO4" s="26"/>
-      <c r="BP4" s="26"/>
-      <c r="BQ4" s="34">
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32"/>
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="29">
         <v>2022</v>
       </c>
-      <c r="BR4" s="35"/>
-      <c r="BS4" s="35"/>
-      <c r="BT4" s="36"/>
+      <c r="BR4" s="30"/>
+      <c r="BS4" s="30"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="38">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="U5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="V5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="16" t="s">
+      <c r="W5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="X5" s="16" t="s">
+      <c r="X5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="Y5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Z5" s="16" t="s">
+      <c r="Z5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AA5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB5" s="16" t="s">
+      <c r="AB5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC5" s="16" t="s">
+      <c r="AC5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AD5" s="16" t="s">
+      <c r="AD5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AE5" s="16" t="s">
+      <c r="AE5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AF5" s="16" t="s">
+      <c r="AF5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AG5" s="16" t="s">
+      <c r="AG5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AH5" s="16" t="s">
+      <c r="AH5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AI5" s="16" t="s">
+      <c r="AI5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AJ5" s="16" t="s">
+      <c r="AJ5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AK5" s="16" t="s">
+      <c r="AK5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AL5" s="16" t="s">
+      <c r="AL5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AM5" s="16" t="s">
+      <c r="AM5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AN5" s="16" t="s">
+      <c r="AN5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AO5" s="16" t="s">
+      <c r="AO5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AP5" s="16" t="s">
+      <c r="AP5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AQ5" s="16" t="s">
+      <c r="AQ5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AR5" s="16" t="s">
+      <c r="AR5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AS5" s="16" t="s">
+      <c r="AS5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AT5" s="16" t="s">
+      <c r="AT5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AU5" s="16" t="s">
+      <c r="AU5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AV5" s="16" t="s">
+      <c r="AV5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AW5" s="16" t="s">
+      <c r="AW5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AX5" s="16" t="s">
+      <c r="AX5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AY5" s="16" t="s">
+      <c r="AY5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AZ5" s="16" t="s">
+      <c r="AZ5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="BA5" s="16" t="s">
+      <c r="BA5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BB5" s="16" t="s">
+      <c r="BB5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="BC5" s="16" t="s">
+      <c r="BC5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BD5" s="16" t="s">
+      <c r="BD5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="BE5" s="16" t="s">
+      <c r="BE5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BF5" s="16" t="s">
+      <c r="BF5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="BG5" s="16" t="s">
+      <c r="BG5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BH5" s="16" t="s">
+      <c r="BH5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="BI5" s="16" t="s">
+      <c r="BI5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BJ5" s="16" t="s">
+      <c r="BJ5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="BK5" s="16" t="s">
+      <c r="BK5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="BL5" s="23" t="s">
+      <c r="BL5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="BM5" s="16" t="s">
+      <c r="BM5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="BN5" s="16" t="s">
+      <c r="BN5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="BO5" s="16" t="s">
+      <c r="BO5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="BP5" s="23" t="s">
+      <c r="BP5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="BQ5" s="23" t="s">
+      <c r="BQ5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="BR5" s="37" t="s">
+      <c r="BR5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="BS5" s="37" t="s">
+      <c r="BS5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="BT5" s="38" t="s">
+      <c r="BT5" s="25" t="s">
         <v>4</v>
       </c>
+      <c r="BU5" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="10"/>
-      <c r="BA6" s="10"/>
-      <c r="BB6" s="10"/>
-      <c r="BC6" s="10"/>
-      <c r="BD6" s="10"/>
-      <c r="BE6" s="10"/>
-      <c r="BF6" s="22"/>
-      <c r="BG6" s="22"/>
-      <c r="BH6" s="10"/>
-      <c r="BI6" s="10"/>
-      <c r="BJ6" s="10"/>
-      <c r="BK6" s="10"/>
-      <c r="BL6" s="10"/>
-      <c r="BM6" s="29"/>
-      <c r="BN6" s="30"/>
-      <c r="BO6" s="30"/>
-      <c r="BP6" s="33"/>
-      <c r="BQ6" s="29"/>
-      <c r="BR6" s="30"/>
-      <c r="BS6" s="30"/>
-      <c r="BT6" s="33"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="20"/>
+      <c r="BG6" s="20"/>
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="9"/>
+      <c r="BK6" s="9"/>
+      <c r="BL6" s="9"/>
+      <c r="BM6" s="26"/>
+      <c r="BN6" s="27"/>
+      <c r="BO6" s="27"/>
+      <c r="BP6" s="28"/>
+      <c r="BQ6" s="26"/>
+      <c r="BR6" s="27"/>
+      <c r="BS6" s="27"/>
+      <c r="BT6" s="28"/>
+      <c r="BU6" s="37"/>
     </row>
-    <row r="7" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>2844479</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>2825724</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>2894746</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>2893276</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>2879000</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>2891859</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>2892970</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>2916734</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>2923283</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>2995783</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>3047913</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>3089794</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <v>3066133</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <v>3141486</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="6">
         <v>3081134</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="6">
         <v>3037337</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="6">
         <v>3016962</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="6">
         <v>3038366</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="6">
         <v>3104885</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="6">
         <v>3198326</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="6">
         <v>3125868</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="6">
         <v>3171385</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="6">
         <v>3209427</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="6">
         <v>3201925</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="Z7" s="6">
         <v>3203724</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="6">
         <v>3200368</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="6">
         <v>3280531</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7" s="6">
         <v>3285628</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="6">
         <v>3286857</v>
       </c>
-      <c r="AE7" s="7">
+      <c r="AE7" s="6">
         <v>3328415</v>
       </c>
-      <c r="AF7" s="7">
+      <c r="AF7" s="6">
         <v>3336397</v>
       </c>
-      <c r="AG7" s="7">
+      <c r="AG7" s="6">
         <v>3268992</v>
       </c>
-      <c r="AH7" s="7">
+      <c r="AH7" s="6">
         <v>3313107</v>
       </c>
-      <c r="AI7" s="7">
+      <c r="AI7" s="6">
         <v>3365048</v>
       </c>
-      <c r="AJ7" s="7">
+      <c r="AJ7" s="6">
         <v>3330846</v>
       </c>
-      <c r="AK7" s="7">
+      <c r="AK7" s="6">
         <v>3347377</v>
       </c>
-      <c r="AL7" s="7">
+      <c r="AL7" s="6">
         <v>3293553</v>
       </c>
-      <c r="AM7" s="7">
+      <c r="AM7" s="6">
         <v>3282880</v>
       </c>
-      <c r="AN7" s="7">
+      <c r="AN7" s="6">
         <v>3322345</v>
       </c>
-      <c r="AO7" s="7">
+      <c r="AO7" s="6">
         <v>3345254</v>
       </c>
-      <c r="AP7" s="7">
+      <c r="AP7" s="6">
         <v>3395608</v>
       </c>
-      <c r="AQ7" s="7">
+      <c r="AQ7" s="6">
         <v>3355065</v>
       </c>
-      <c r="AR7" s="7">
+      <c r="AR7" s="6">
         <v>3392294</v>
       </c>
-      <c r="AS7" s="7">
+      <c r="AS7" s="6">
         <v>3556156</v>
       </c>
-      <c r="AT7" s="7">
+      <c r="AT7" s="6">
         <v>3495018</v>
       </c>
-      <c r="AU7" s="7">
+      <c r="AU7" s="6">
         <v>3513266</v>
       </c>
-      <c r="AV7" s="7">
+      <c r="AV7" s="6">
         <v>3550695</v>
       </c>
-      <c r="AW7" s="7">
+      <c r="AW7" s="6">
         <v>3571709</v>
       </c>
-      <c r="AX7" s="7">
+      <c r="AX7" s="6">
         <v>3640721</v>
       </c>
-      <c r="AY7" s="7">
+      <c r="AY7" s="6">
         <v>3611268</v>
       </c>
-      <c r="AZ7" s="7">
+      <c r="AZ7" s="6">
         <v>3665360</v>
       </c>
-      <c r="BA7" s="7">
+      <c r="BA7" s="6">
         <v>3647376</v>
       </c>
-      <c r="BB7" s="7">
+      <c r="BB7" s="6">
         <v>3647778</v>
       </c>
-      <c r="BC7" s="7">
+      <c r="BC7" s="6">
         <v>3646192</v>
       </c>
-      <c r="BD7" s="7">
+      <c r="BD7" s="6">
         <v>3678349</v>
       </c>
-      <c r="BE7" s="7">
+      <c r="BE7" s="6">
         <v>3700487</v>
       </c>
-      <c r="BF7" s="7">
+      <c r="BF7" s="6">
         <v>3757440</v>
       </c>
-      <c r="BG7" s="11">
+      <c r="BG7" s="10">
         <v>3734233</v>
       </c>
-      <c r="BH7" s="19">
+      <c r="BH7" s="17">
         <v>3761282</v>
       </c>
-      <c r="BI7" s="20">
+      <c r="BI7" s="18">
         <v>3772715</v>
       </c>
-      <c r="BJ7" s="21">
+      <c r="BJ7" s="19">
         <v>3778375</v>
       </c>
-      <c r="BK7" s="21">
+      <c r="BK7" s="19">
         <v>3576228</v>
       </c>
-      <c r="BL7" s="24">
+      <c r="BL7" s="22">
         <v>3654530</v>
       </c>
-      <c r="BM7" s="15">
+      <c r="BM7" s="14">
         <v>3735596</v>
       </c>
-      <c r="BN7" s="15">
+      <c r="BN7" s="14">
         <v>3824700</v>
       </c>
-      <c r="BO7" s="15">
+      <c r="BO7" s="14">
         <v>3825417</v>
       </c>
-      <c r="BP7" s="15">
+      <c r="BP7" s="14">
         <v>3924612</v>
       </c>
-      <c r="BQ7" s="15">
+      <c r="BQ7" s="14">
         <v>3943727</v>
       </c>
-      <c r="BR7" s="15">
+      <c r="BR7" s="14">
         <v>3973378</v>
       </c>
-      <c r="BS7" s="15">
+      <c r="BS7" s="14">
         <v>4023627</v>
       </c>
-      <c r="BT7" s="15">
+      <c r="BT7" s="14">
         <v>4066247</v>
       </c>
+      <c r="BU7" s="14">
+        <v>4107726</v>
+      </c>
     </row>
-    <row r="8" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>305701</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>271498</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>290957</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>274941</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>277781</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>230728</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>250625</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>258190</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>238932</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>241144</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>269756</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>274091</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>248681</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>262730</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>244706</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>238889</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>285855</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <v>268431</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="3">
         <v>304053</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="3">
         <v>294646</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="3">
         <v>251592</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="3">
         <v>265529</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="3">
         <v>278711</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="3">
         <v>246354</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z8" s="3">
         <v>267103</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AA8" s="3">
         <v>266127</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AB8" s="3">
         <v>287762</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AC8" s="3">
         <v>273808</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AD8" s="3">
         <v>299768</v>
       </c>
-      <c r="AE8" s="4">
+      <c r="AE8" s="3">
         <v>318443</v>
       </c>
-      <c r="AF8" s="4">
+      <c r="AF8" s="3">
         <v>351985</v>
       </c>
-      <c r="AG8" s="4">
+      <c r="AG8" s="3">
         <v>316446</v>
       </c>
-      <c r="AH8" s="4">
+      <c r="AH8" s="3">
         <v>309042</v>
       </c>
-      <c r="AI8" s="4">
+      <c r="AI8" s="3">
         <v>319026</v>
       </c>
-      <c r="AJ8" s="4">
+      <c r="AJ8" s="3">
         <v>340816</v>
       </c>
-      <c r="AK8" s="4">
+      <c r="AK8" s="3">
         <v>305773</v>
       </c>
-      <c r="AL8" s="4">
+      <c r="AL8" s="3">
         <v>311635</v>
       </c>
-      <c r="AM8" s="4">
+      <c r="AM8" s="3">
         <v>305561</v>
       </c>
-      <c r="AN8" s="4">
+      <c r="AN8" s="3">
         <v>284327</v>
       </c>
-      <c r="AO8" s="4">
+      <c r="AO8" s="3">
         <v>306514</v>
       </c>
-      <c r="AP8" s="4">
+      <c r="AP8" s="3">
         <v>332601</v>
       </c>
-      <c r="AQ8" s="4">
+      <c r="AQ8" s="3">
         <v>283071</v>
       </c>
-      <c r="AR8" s="4">
+      <c r="AR8" s="3">
         <v>294564</v>
       </c>
-      <c r="AS8" s="4">
+      <c r="AS8" s="3">
         <v>293905</v>
       </c>
-      <c r="AT8" s="4">
+      <c r="AT8" s="3">
         <v>359238</v>
       </c>
-      <c r="AU8" s="4">
+      <c r="AU8" s="3">
         <v>346839</v>
       </c>
-      <c r="AV8" s="4">
+      <c r="AV8" s="3">
         <v>350312</v>
       </c>
-      <c r="AW8" s="4">
+      <c r="AW8" s="3">
         <v>292443</v>
       </c>
-      <c r="AX8" s="4">
+      <c r="AX8" s="3">
         <v>312397</v>
       </c>
-      <c r="AY8" s="4">
+      <c r="AY8" s="3">
         <v>309524</v>
       </c>
-      <c r="AZ8" s="4">
+      <c r="AZ8" s="3">
         <v>268090</v>
       </c>
-      <c r="BA8" s="4">
+      <c r="BA8" s="3">
         <v>330668</v>
       </c>
-      <c r="BB8" s="4">
+      <c r="BB8" s="3">
         <v>338506</v>
       </c>
-      <c r="BC8" s="4">
+      <c r="BC8" s="3">
         <v>341347</v>
       </c>
-      <c r="BD8" s="4">
+      <c r="BD8" s="3">
         <v>286128</v>
       </c>
-      <c r="BE8" s="4">
+      <c r="BE8" s="3">
         <v>301523</v>
       </c>
-      <c r="BF8" s="4">
+      <c r="BF8" s="3">
         <v>379294</v>
       </c>
-      <c r="BG8" s="8">
+      <c r="BG8" s="7">
         <v>387458</v>
       </c>
-      <c r="BH8" s="12">
+      <c r="BH8" s="11">
         <v>393260</v>
       </c>
-      <c r="BI8" s="13">
+      <c r="BI8" s="12">
         <v>379469</v>
       </c>
-      <c r="BJ8" s="14">
+      <c r="BJ8" s="13">
         <v>482835</v>
       </c>
-      <c r="BK8" s="14">
+      <c r="BK8" s="13">
         <v>437379</v>
       </c>
-      <c r="BL8" s="25">
+      <c r="BL8" s="23">
         <v>402304</v>
       </c>
-      <c r="BM8" s="14">
+      <c r="BM8" s="13">
         <v>493496</v>
       </c>
-      <c r="BN8" s="14">
+      <c r="BN8" s="13">
         <v>519377</v>
       </c>
-      <c r="BO8" s="14">
+      <c r="BO8" s="13">
         <v>586916</v>
       </c>
-      <c r="BP8" s="14">
+      <c r="BP8" s="13">
         <v>559505</v>
       </c>
-      <c r="BQ8" s="14">
+      <c r="BQ8" s="13">
         <v>928729</v>
       </c>
-      <c r="BR8" s="14">
+      <c r="BR8" s="13">
         <v>794214</v>
       </c>
-      <c r="BS8" s="14">
+      <c r="BS8" s="13">
         <v>719033</v>
       </c>
-      <c r="BT8" s="14">
+      <c r="BT8" s="13">
         <v>683853</v>
       </c>
+      <c r="BU8" s="13">
+        <v>915114</v>
+      </c>
     </row>
-    <row r="9" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>511036</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>462922</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>502619</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>461817</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>443283</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>465924</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>454314</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>435142</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>454567</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>389247</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>403544</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>419862</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>446774</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>477871</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>452780</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>435026</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>505132</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="3">
         <v>527281</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>538948</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <v>518788</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <v>595445</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="3">
         <v>620873</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="3">
         <v>537242</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="3">
         <v>534669</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="Z9" s="3">
         <v>607117</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AA9" s="3">
         <v>592957</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AB9" s="3">
         <v>654806</v>
       </c>
-      <c r="AC9" s="4">
+      <c r="AC9" s="3">
         <v>627930</v>
       </c>
-      <c r="AD9" s="4">
+      <c r="AD9" s="3">
         <v>728345</v>
       </c>
-      <c r="AE9" s="4">
+      <c r="AE9" s="3">
         <v>772697</v>
       </c>
-      <c r="AF9" s="4">
+      <c r="AF9" s="3">
         <v>728322</v>
       </c>
-      <c r="AG9" s="4">
+      <c r="AG9" s="3">
         <v>736540</v>
       </c>
-      <c r="AH9" s="4">
+      <c r="AH9" s="3">
         <v>771821</v>
       </c>
-      <c r="AI9" s="4">
+      <c r="AI9" s="3">
         <v>804995</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AJ9" s="3">
         <v>715054</v>
       </c>
-      <c r="AK9" s="4">
+      <c r="AK9" s="3">
         <v>724806</v>
       </c>
-      <c r="AL9" s="4">
+      <c r="AL9" s="3">
         <v>748873</v>
       </c>
-      <c r="AM9" s="4">
+      <c r="AM9" s="3">
         <v>716361</v>
       </c>
-      <c r="AN9" s="4">
+      <c r="AN9" s="3">
         <v>716167</v>
       </c>
-      <c r="AO9" s="4">
+      <c r="AO9" s="3">
         <v>801873</v>
       </c>
-      <c r="AP9" s="4">
+      <c r="AP9" s="3">
         <v>773952</v>
       </c>
-      <c r="AQ9" s="4">
+      <c r="AQ9" s="3">
         <v>768908</v>
       </c>
-      <c r="AR9" s="4">
+      <c r="AR9" s="3">
         <v>753159</v>
       </c>
-      <c r="AS9" s="4">
+      <c r="AS9" s="3">
         <v>855515</v>
       </c>
-      <c r="AT9" s="4">
+      <c r="AT9" s="3">
         <v>905622</v>
       </c>
-      <c r="AU9" s="4">
+      <c r="AU9" s="3">
         <v>872027</v>
       </c>
-      <c r="AV9" s="4">
+      <c r="AV9" s="3">
         <v>868181</v>
       </c>
-      <c r="AW9" s="4">
+      <c r="AW9" s="3">
         <v>877081</v>
       </c>
-      <c r="AX9" s="4">
+      <c r="AX9" s="3">
         <v>907786</v>
       </c>
-      <c r="AY9" s="4">
+      <c r="AY9" s="3">
         <v>900444</v>
       </c>
-      <c r="AZ9" s="4">
+      <c r="AZ9" s="3">
         <v>884899</v>
       </c>
-      <c r="BA9" s="4">
+      <c r="BA9" s="3">
         <v>900808</v>
       </c>
-      <c r="BB9" s="4">
+      <c r="BB9" s="3">
         <v>1019497</v>
       </c>
-      <c r="BC9" s="4">
+      <c r="BC9" s="3">
         <v>1043889</v>
       </c>
-      <c r="BD9" s="4">
+      <c r="BD9" s="3">
         <v>985445</v>
       </c>
-      <c r="BE9" s="4">
+      <c r="BE9" s="3">
         <v>935161</v>
       </c>
-      <c r="BF9" s="4">
+      <c r="BF9" s="3">
         <v>1208089</v>
       </c>
-      <c r="BG9" s="8">
+      <c r="BG9" s="7">
         <v>1164637</v>
       </c>
-      <c r="BH9" s="12">
+      <c r="BH9" s="11">
         <v>1188536</v>
       </c>
-      <c r="BI9" s="13">
+      <c r="BI9" s="12">
         <v>1167210</v>
       </c>
-      <c r="BJ9" s="14">
+      <c r="BJ9" s="13">
         <v>1426721</v>
       </c>
-      <c r="BK9" s="14">
+      <c r="BK9" s="13">
         <v>1374118</v>
       </c>
-      <c r="BL9" s="25">
+      <c r="BL9" s="23">
         <v>1409512</v>
       </c>
-      <c r="BM9" s="14">
+      <c r="BM9" s="13">
         <v>1638245</v>
       </c>
-      <c r="BN9" s="14">
+      <c r="BN9" s="13">
         <v>1607400</v>
       </c>
-      <c r="BO9" s="14">
+      <c r="BO9" s="13">
         <v>1533850</v>
       </c>
-      <c r="BP9" s="14">
+      <c r="BP9" s="13">
         <v>1598111</v>
       </c>
-      <c r="BQ9" s="14">
+      <c r="BQ9" s="13">
         <v>1599929</v>
       </c>
-      <c r="BR9" s="14">
+      <c r="BR9" s="13">
         <v>1796548</v>
       </c>
-      <c r="BS9" s="14">
+      <c r="BS9" s="13">
         <v>1791060</v>
       </c>
-      <c r="BT9" s="14">
+      <c r="BT9" s="13">
         <v>1719229</v>
       </c>
+      <c r="BU9" s="13">
+        <v>1877430</v>
+      </c>
     </row>
-    <row r="10" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>535630</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>546272</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>550390</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>571450</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>568084</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>556347</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>524684</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>569469</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>690323</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>711344</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>696428</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>673999</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>732280</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>708908</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>702636</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>673221</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <v>668866</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <v>658571</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <v>674315</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="3">
         <v>714017</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <v>758456</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="3">
         <v>753627</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="3">
         <v>800412</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="3">
         <v>828564</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z10" s="3">
         <v>852790</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AA10" s="3">
         <v>847222</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AB10" s="3">
         <v>815247</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="AC10" s="3">
         <v>812351</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AD10" s="3">
         <v>910632</v>
       </c>
-      <c r="AE10" s="4">
+      <c r="AE10" s="3">
         <v>971793</v>
       </c>
-      <c r="AF10" s="4">
+      <c r="AF10" s="3">
         <v>984842</v>
       </c>
-      <c r="AG10" s="4">
+      <c r="AG10" s="3">
         <v>942388</v>
       </c>
-      <c r="AH10" s="4">
+      <c r="AH10" s="3">
         <v>900382</v>
       </c>
-      <c r="AI10" s="4">
+      <c r="AI10" s="3">
         <v>876181</v>
       </c>
-      <c r="AJ10" s="4">
+      <c r="AJ10" s="3">
         <v>883813</v>
       </c>
-      <c r="AK10" s="4">
+      <c r="AK10" s="3">
         <v>911513</v>
       </c>
-      <c r="AL10" s="4">
+      <c r="AL10" s="3">
         <v>932966</v>
       </c>
-      <c r="AM10" s="4">
+      <c r="AM10" s="3">
         <v>971309</v>
       </c>
-      <c r="AN10" s="4">
+      <c r="AN10" s="3">
         <v>953352</v>
       </c>
-      <c r="AO10" s="4">
+      <c r="AO10" s="3">
         <v>1004716</v>
       </c>
-      <c r="AP10" s="4">
+      <c r="AP10" s="3">
         <v>909554</v>
       </c>
-      <c r="AQ10" s="4">
+      <c r="AQ10" s="3">
         <v>962276</v>
       </c>
-      <c r="AR10" s="4">
+      <c r="AR10" s="3">
         <v>1002903</v>
       </c>
-      <c r="AS10" s="4">
+      <c r="AS10" s="3">
         <v>992580</v>
       </c>
-      <c r="AT10" s="4">
+      <c r="AT10" s="3">
         <v>968550</v>
       </c>
-      <c r="AU10" s="4">
+      <c r="AU10" s="3">
         <v>995635</v>
       </c>
-      <c r="AV10" s="4">
+      <c r="AV10" s="3">
         <v>989453</v>
       </c>
-      <c r="AW10" s="4">
+      <c r="AW10" s="3">
         <v>1073137</v>
       </c>
-      <c r="AX10" s="4">
+      <c r="AX10" s="3">
         <v>1099838</v>
       </c>
-      <c r="AY10" s="4">
+      <c r="AY10" s="3">
         <v>1052303</v>
       </c>
-      <c r="AZ10" s="4">
+      <c r="AZ10" s="3">
         <v>1137571</v>
       </c>
-      <c r="BA10" s="4">
+      <c r="BA10" s="3">
         <v>1072034</v>
       </c>
-      <c r="BB10" s="4">
+      <c r="BB10" s="3">
         <v>947333</v>
       </c>
-      <c r="BC10" s="4">
+      <c r="BC10" s="3">
         <v>951254</v>
       </c>
-      <c r="BD10" s="4">
+      <c r="BD10" s="3">
         <v>977349</v>
       </c>
-      <c r="BE10" s="4">
+      <c r="BE10" s="3">
         <v>1004232</v>
       </c>
-      <c r="BF10" s="4">
+      <c r="BF10" s="3">
         <v>1025057</v>
       </c>
-      <c r="BG10" s="8">
+      <c r="BG10" s="7">
         <v>1083886</v>
       </c>
-      <c r="BH10" s="12">
+      <c r="BH10" s="11">
         <v>1031702</v>
       </c>
-      <c r="BI10" s="13">
+      <c r="BI10" s="12">
         <v>1049227</v>
       </c>
-      <c r="BJ10" s="14">
+      <c r="BJ10" s="13">
         <v>922791</v>
       </c>
-      <c r="BK10" s="14">
+      <c r="BK10" s="13">
         <v>882460</v>
       </c>
-      <c r="BL10" s="25">
+      <c r="BL10" s="23">
         <v>990487</v>
       </c>
-      <c r="BM10" s="14">
+      <c r="BM10" s="13">
         <v>827318</v>
       </c>
-      <c r="BN10" s="14">
+      <c r="BN10" s="13">
         <v>862743</v>
       </c>
-      <c r="BO10" s="14">
+      <c r="BO10" s="13">
         <v>903130</v>
       </c>
-      <c r="BP10" s="14">
+      <c r="BP10" s="13">
         <v>908008</v>
       </c>
-      <c r="BQ10" s="14">
+      <c r="BQ10" s="13">
         <v>747752</v>
       </c>
-      <c r="BR10" s="14">
+      <c r="BR10" s="13">
         <v>737608</v>
       </c>
-      <c r="BS10" s="14">
+      <c r="BS10" s="13">
         <v>766523</v>
       </c>
-      <c r="BT10" s="14">
+      <c r="BT10" s="13">
         <v>817254</v>
       </c>
+      <c r="BU10" s="13">
+        <v>601984</v>
+      </c>
     </row>
-    <row r="11" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>502450</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>479073</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>517733</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>521613</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>570041</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>587738</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>583068</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>626643</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>598498</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>587510</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>643020</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>647752</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>587445</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="3">
         <v>619447</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>606897</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>597573</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <v>567341</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="3">
         <v>586811</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="3">
         <v>585826</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="3">
         <v>513424</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <v>582050</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="3">
         <v>559922</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="3">
         <v>583218</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="3">
         <v>598364</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="Z11" s="3">
         <v>590936</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AA11" s="3">
         <v>578847</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AB11" s="3">
         <v>552025</v>
       </c>
-      <c r="AC11" s="4">
+      <c r="AC11" s="3">
         <v>612205</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AD11" s="3">
         <v>626654</v>
       </c>
-      <c r="AE11" s="4">
+      <c r="AE11" s="3">
         <v>680625</v>
       </c>
-      <c r="AF11" s="4">
+      <c r="AF11" s="3">
         <v>680920</v>
       </c>
-      <c r="AG11" s="4">
+      <c r="AG11" s="3">
         <v>648690</v>
       </c>
-      <c r="AH11" s="4">
+      <c r="AH11" s="3">
         <v>709892</v>
       </c>
-      <c r="AI11" s="4">
+      <c r="AI11" s="3">
         <v>659400</v>
       </c>
-      <c r="AJ11" s="4">
+      <c r="AJ11" s="3">
         <v>687688</v>
       </c>
-      <c r="AK11" s="4">
+      <c r="AK11" s="3">
         <v>666389</v>
       </c>
-      <c r="AL11" s="4">
+      <c r="AL11" s="3">
         <v>677285</v>
       </c>
-      <c r="AM11" s="4">
+      <c r="AM11" s="3">
         <v>696734</v>
       </c>
-      <c r="AN11" s="4">
+      <c r="AN11" s="3">
         <v>677034</v>
       </c>
-      <c r="AO11" s="4">
+      <c r="AO11" s="3">
         <v>632886</v>
       </c>
-      <c r="AP11" s="4">
+      <c r="AP11" s="3">
         <v>672410</v>
       </c>
-      <c r="AQ11" s="4">
+      <c r="AQ11" s="3">
         <v>729096</v>
       </c>
-      <c r="AR11" s="4">
+      <c r="AR11" s="3">
         <v>673522</v>
       </c>
-      <c r="AS11" s="4">
+      <c r="AS11" s="3">
         <v>712963</v>
       </c>
-      <c r="AT11" s="4">
+      <c r="AT11" s="3">
         <v>606466</v>
       </c>
-      <c r="AU11" s="4">
+      <c r="AU11" s="3">
         <v>606873</v>
       </c>
-      <c r="AV11" s="4">
+      <c r="AV11" s="3">
         <v>622535</v>
       </c>
-      <c r="AW11" s="4">
+      <c r="AW11" s="3">
         <v>653557</v>
       </c>
-      <c r="AX11" s="4">
+      <c r="AX11" s="3">
         <v>638133</v>
       </c>
-      <c r="AY11" s="4">
+      <c r="AY11" s="3">
         <v>627687</v>
       </c>
-      <c r="AZ11" s="4">
+      <c r="AZ11" s="3">
         <v>675325</v>
       </c>
-      <c r="BA11" s="4">
+      <c r="BA11" s="3">
         <v>677220</v>
       </c>
-      <c r="BB11" s="4">
+      <c r="BB11" s="3">
         <v>710882</v>
       </c>
-      <c r="BC11" s="4">
+      <c r="BC11" s="3">
         <v>625659</v>
       </c>
-      <c r="BD11" s="4">
+      <c r="BD11" s="3">
         <v>695921</v>
       </c>
-      <c r="BE11" s="4">
+      <c r="BE11" s="3">
         <v>694764</v>
       </c>
-      <c r="BF11" s="4">
+      <c r="BF11" s="3">
         <v>503812</v>
       </c>
-      <c r="BG11" s="8">
+      <c r="BG11" s="7">
         <v>487820</v>
       </c>
-      <c r="BH11" s="12">
+      <c r="BH11" s="11">
         <v>500611</v>
       </c>
-      <c r="BI11" s="13">
+      <c r="BI11" s="12">
         <v>539730</v>
       </c>
-      <c r="BJ11" s="14">
+      <c r="BJ11" s="13">
         <v>373902</v>
       </c>
-      <c r="BK11" s="14">
+      <c r="BK11" s="13">
         <v>390866</v>
       </c>
-      <c r="BL11" s="25">
+      <c r="BL11" s="23">
         <v>381817</v>
       </c>
-      <c r="BM11" s="14">
+      <c r="BM11" s="13">
         <v>383115</v>
       </c>
-      <c r="BN11" s="14">
+      <c r="BN11" s="13">
         <v>382310</v>
       </c>
-      <c r="BO11" s="14">
+      <c r="BO11" s="13">
         <v>336425</v>
       </c>
-      <c r="BP11" s="14">
+      <c r="BP11" s="13">
         <v>338002</v>
       </c>
-      <c r="BQ11" s="14">
+      <c r="BQ11" s="13">
         <v>202806</v>
       </c>
-      <c r="BR11" s="14">
+      <c r="BR11" s="13">
         <v>189327</v>
       </c>
-      <c r="BS11" s="14">
+      <c r="BS11" s="13">
         <v>189444</v>
       </c>
-      <c r="BT11" s="14">
+      <c r="BT11" s="13">
         <v>208342</v>
       </c>
+      <c r="BU11" s="13">
+        <v>168249</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>251861</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>276802</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>293980</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>313114</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>310182</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>310915</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>325261</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>324307</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>304073</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>346362</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>344341</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>364473</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>385114</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>377925</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>353686</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>343424</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="3">
         <v>330427</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="3">
         <v>322901</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="3">
         <v>312071</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="3">
         <v>305802</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="3">
         <v>260752</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="3">
         <v>264976</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="3">
         <v>264807</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12" s="3">
         <v>259898</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="Z12" s="3">
         <v>267460</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AA12" s="3">
         <v>256942</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AB12" s="3">
         <v>247992</v>
       </c>
-      <c r="AC12" s="4">
+      <c r="AC12" s="3">
         <v>228775</v>
       </c>
-      <c r="AD12" s="4">
+      <c r="AD12" s="3">
         <v>239947</v>
       </c>
-      <c r="AE12" s="4">
+      <c r="AE12" s="3">
         <v>275197</v>
       </c>
-      <c r="AF12" s="4">
+      <c r="AF12" s="3">
         <v>262461</v>
       </c>
-      <c r="AG12" s="4">
+      <c r="AG12" s="3">
         <v>283414</v>
       </c>
-      <c r="AH12" s="4">
+      <c r="AH12" s="3">
         <v>275309</v>
       </c>
-      <c r="AI12" s="4">
+      <c r="AI12" s="3">
         <v>280236</v>
       </c>
-      <c r="AJ12" s="4">
+      <c r="AJ12" s="3">
         <v>278796</v>
       </c>
-      <c r="AK12" s="4">
+      <c r="AK12" s="3">
         <v>268116</v>
       </c>
-      <c r="AL12" s="4">
+      <c r="AL12" s="3">
         <v>238776</v>
       </c>
-      <c r="AM12" s="4">
+      <c r="AM12" s="3">
         <v>272472</v>
       </c>
-      <c r="AN12" s="4">
+      <c r="AN12" s="3">
         <v>264932</v>
       </c>
-      <c r="AO12" s="4">
+      <c r="AO12" s="3">
         <v>236977</v>
       </c>
-      <c r="AP12" s="4">
+      <c r="AP12" s="3">
         <v>256184</v>
       </c>
-      <c r="AQ12" s="4">
+      <c r="AQ12" s="3">
         <v>228804</v>
       </c>
-      <c r="AR12" s="4">
+      <c r="AR12" s="3">
         <v>262130</v>
       </c>
-      <c r="AS12" s="4">
+      <c r="AS12" s="3">
         <v>278715</v>
       </c>
-      <c r="AT12" s="4">
+      <c r="AT12" s="3">
         <v>256299</v>
       </c>
-      <c r="AU12" s="4">
+      <c r="AU12" s="3">
         <v>244705</v>
       </c>
-      <c r="AV12" s="4">
+      <c r="AV12" s="3">
         <v>265579</v>
       </c>
-      <c r="AW12" s="4">
+      <c r="AW12" s="3">
         <v>243392</v>
       </c>
-      <c r="AX12" s="4">
+      <c r="AX12" s="3">
         <v>244147</v>
       </c>
-      <c r="AY12" s="4">
+      <c r="AY12" s="3">
         <v>213100</v>
       </c>
-      <c r="AZ12" s="4">
+      <c r="AZ12" s="3">
         <v>223827</v>
       </c>
-      <c r="BA12" s="4">
+      <c r="BA12" s="3">
         <v>208645</v>
       </c>
-      <c r="BB12" s="4">
+      <c r="BB12" s="3">
         <v>198471</v>
       </c>
-      <c r="BC12" s="4">
+      <c r="BC12" s="3">
         <v>191571</v>
       </c>
-      <c r="BD12" s="4">
+      <c r="BD12" s="3">
         <v>199841</v>
       </c>
-      <c r="BE12" s="4">
+      <c r="BE12" s="3">
         <v>206240</v>
       </c>
-      <c r="BF12" s="4">
+      <c r="BF12" s="3">
         <v>140555</v>
       </c>
-      <c r="BG12" s="8">
+      <c r="BG12" s="7">
         <v>166061</v>
       </c>
-      <c r="BH12" s="12">
+      <c r="BH12" s="11">
         <v>143017</v>
       </c>
-      <c r="BI12" s="13">
+      <c r="BI12" s="12">
         <v>162304</v>
       </c>
-      <c r="BJ12" s="14">
+      <c r="BJ12" s="13">
         <v>131859</v>
       </c>
-      <c r="BK12" s="14">
+      <c r="BK12" s="13">
         <v>113754</v>
       </c>
-      <c r="BL12" s="25">
+      <c r="BL12" s="23">
         <v>124728</v>
       </c>
-      <c r="BM12" s="14">
+      <c r="BM12" s="13">
         <v>90658</v>
       </c>
-      <c r="BN12" s="14">
+      <c r="BN12" s="13">
         <v>71216</v>
       </c>
-      <c r="BO12" s="14">
+      <c r="BO12" s="13">
         <v>90244</v>
       </c>
-      <c r="BP12" s="14">
+      <c r="BP12" s="13">
         <v>80937</v>
       </c>
-      <c r="BQ12" s="14">
+      <c r="BQ12" s="13">
         <v>63654</v>
       </c>
-      <c r="BR12" s="14">
+      <c r="BR12" s="13">
         <v>57514</v>
       </c>
-      <c r="BS12" s="14">
+      <c r="BS12" s="13">
         <v>49246</v>
       </c>
-      <c r="BT12" s="14">
+      <c r="BT12" s="13">
         <v>69384</v>
       </c>
+      <c r="BU12" s="13">
+        <v>40936</v>
+      </c>
     </row>
-    <row r="13" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>229877</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>237073</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>276801</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>246772</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>206699</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>226243</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>217104</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>182213</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>192509</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>197302</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>237116</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>218069</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>187892</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <v>204162</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>204510</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>193748</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <v>174092</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="3">
         <v>181265</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <v>198327</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <v>216757</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <v>216194</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="3">
         <v>180240</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="3">
         <v>236199</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="3">
         <v>230641</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Z13" s="3">
         <v>216215</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AA13" s="3">
         <v>198049</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AB13" s="3">
         <v>216904</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AC13" s="3">
         <v>183416</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AD13" s="3">
         <v>185045</v>
       </c>
-      <c r="AE13" s="4">
+      <c r="AE13" s="3">
         <v>175911</v>
       </c>
-      <c r="AF13" s="4">
+      <c r="AF13" s="3">
         <v>188209</v>
       </c>
-      <c r="AG13" s="4">
+      <c r="AG13" s="3">
         <v>175608</v>
       </c>
-      <c r="AH13" s="4">
+      <c r="AH13" s="3">
         <v>192068</v>
       </c>
-      <c r="AI13" s="4">
+      <c r="AI13" s="3">
         <v>188087</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AJ13" s="3">
         <v>172188</v>
       </c>
-      <c r="AK13" s="4">
+      <c r="AK13" s="3">
         <v>163806</v>
       </c>
-      <c r="AL13" s="4">
+      <c r="AL13" s="3">
         <v>175319</v>
       </c>
-      <c r="AM13" s="4">
+      <c r="AM13" s="3">
         <v>147709</v>
       </c>
-      <c r="AN13" s="4">
+      <c r="AN13" s="3">
         <v>196853</v>
       </c>
-      <c r="AO13" s="4">
+      <c r="AO13" s="3">
         <v>162280</v>
       </c>
-      <c r="AP13" s="4">
+      <c r="AP13" s="3">
         <v>192790</v>
       </c>
-      <c r="AQ13" s="4">
+      <c r="AQ13" s="3">
         <v>148653</v>
       </c>
-      <c r="AR13" s="4">
+      <c r="AR13" s="3">
         <v>154565</v>
       </c>
-      <c r="AS13" s="4">
+      <c r="AS13" s="3">
         <v>169169</v>
       </c>
-      <c r="AT13" s="4">
+      <c r="AT13" s="3">
         <v>135906</v>
       </c>
-      <c r="AU13" s="4">
+      <c r="AU13" s="3">
         <v>165820</v>
       </c>
-      <c r="AV13" s="4">
+      <c r="AV13" s="3">
         <v>168691</v>
       </c>
-      <c r="AW13" s="4">
+      <c r="AW13" s="3">
         <v>140475</v>
       </c>
-      <c r="AX13" s="4">
+      <c r="AX13" s="3">
         <v>148225</v>
       </c>
-      <c r="AY13" s="4">
+      <c r="AY13" s="3">
         <v>129306</v>
       </c>
-      <c r="AZ13" s="4">
+      <c r="AZ13" s="3">
         <v>132667</v>
       </c>
-      <c r="BA13" s="4">
+      <c r="BA13" s="3">
         <v>143500</v>
       </c>
-      <c r="BB13" s="4">
+      <c r="BB13" s="3">
         <v>130335</v>
       </c>
-      <c r="BC13" s="4">
+      <c r="BC13" s="3">
         <v>134507</v>
       </c>
-      <c r="BD13" s="4">
+      <c r="BD13" s="3">
         <v>157027</v>
       </c>
-      <c r="BE13" s="4">
+      <c r="BE13" s="3">
         <v>147902</v>
       </c>
-      <c r="BF13" s="4">
+      <c r="BF13" s="3">
         <v>131724</v>
       </c>
-      <c r="BG13" s="8">
+      <c r="BG13" s="7">
         <v>118859</v>
       </c>
-      <c r="BH13" s="12">
+      <c r="BH13" s="11">
         <v>155194</v>
       </c>
-      <c r="BI13" s="13">
+      <c r="BI13" s="12">
         <v>130588</v>
       </c>
-      <c r="BJ13" s="14">
+      <c r="BJ13" s="13">
         <v>107501</v>
       </c>
-      <c r="BK13" s="14">
+      <c r="BK13" s="13">
         <v>108989</v>
       </c>
-      <c r="BL13" s="25">
+      <c r="BL13" s="23">
         <v>103253</v>
       </c>
-      <c r="BM13" s="14">
+      <c r="BM13" s="13">
         <v>88754</v>
       </c>
-      <c r="BN13" s="14">
+      <c r="BN13" s="13">
         <v>100693</v>
       </c>
-      <c r="BO13" s="14">
+      <c r="BO13" s="13">
         <v>98527</v>
       </c>
-      <c r="BP13" s="14">
+      <c r="BP13" s="13">
         <v>116861</v>
       </c>
-      <c r="BQ13" s="14">
+      <c r="BQ13" s="13">
         <v>104806</v>
       </c>
-      <c r="BR13" s="14">
+      <c r="BR13" s="13">
         <v>90111</v>
       </c>
-      <c r="BS13" s="14">
+      <c r="BS13" s="13">
         <v>121865</v>
       </c>
-      <c r="BT13" s="14">
+      <c r="BT13" s="13">
         <v>118435</v>
       </c>
+      <c r="BU13" s="13">
+        <v>118948</v>
+      </c>
     </row>
-    <row r="14" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>507924</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>552084</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>462266</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>503569</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>502930</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>513964</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>537914</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>520770</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>444381</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>522874</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>453708</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <v>491548</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>477947</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <v>490443</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>515919</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>555456</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="3">
         <v>485249</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="3">
         <v>493106</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="3">
         <v>491345</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="3">
         <v>634892</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="3">
         <v>461379</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="3">
         <v>526218</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="3">
         <v>508838</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14" s="3">
         <v>503435</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="Z14" s="3">
         <v>402103</v>
       </c>
-      <c r="AA14" s="4">
+      <c r="AA14" s="3">
         <v>460224</v>
       </c>
-      <c r="AB14" s="4">
+      <c r="AB14" s="3">
         <v>505795</v>
       </c>
-      <c r="AC14" s="4">
+      <c r="AC14" s="3">
         <v>547143</v>
       </c>
-      <c r="AD14" s="4">
+      <c r="AD14" s="3">
         <v>296466</v>
       </c>
-      <c r="AE14" s="4">
+      <c r="AE14" s="3">
         <v>133749</v>
       </c>
-      <c r="AF14" s="4">
+      <c r="AF14" s="3">
         <v>139658</v>
       </c>
-      <c r="AG14" s="4">
+      <c r="AG14" s="3">
         <v>165906</v>
       </c>
-      <c r="AH14" s="4">
+      <c r="AH14" s="3">
         <v>154593</v>
       </c>
-      <c r="AI14" s="4">
+      <c r="AI14" s="3">
         <v>237123</v>
       </c>
-      <c r="AJ14" s="4">
+      <c r="AJ14" s="3">
         <v>252491</v>
       </c>
-      <c r="AK14" s="4">
+      <c r="AK14" s="3">
         <v>306974</v>
       </c>
-      <c r="AL14" s="4">
+      <c r="AL14" s="3">
         <v>208699</v>
       </c>
-      <c r="AM14" s="4">
+      <c r="AM14" s="3">
         <v>172734</v>
       </c>
-      <c r="AN14" s="4">
+      <c r="AN14" s="3">
         <v>229680</v>
       </c>
-      <c r="AO14" s="4">
+      <c r="AO14" s="3">
         <v>200008</v>
       </c>
-      <c r="AP14" s="4">
+      <c r="AP14" s="3">
         <v>258117</v>
       </c>
-      <c r="AQ14" s="4">
+      <c r="AQ14" s="3">
         <v>234257</v>
       </c>
-      <c r="AR14" s="4">
+      <c r="AR14" s="3">
         <v>251451</v>
       </c>
-      <c r="AS14" s="4">
+      <c r="AS14" s="3">
         <v>253309</v>
       </c>
-      <c r="AT14" s="4">
+      <c r="AT14" s="3">
         <v>262937</v>
       </c>
-      <c r="AU14" s="4">
+      <c r="AU14" s="3">
         <v>281367</v>
       </c>
-      <c r="AV14" s="4">
+      <c r="AV14" s="3">
         <v>285944</v>
       </c>
-      <c r="AW14" s="4">
+      <c r="AW14" s="3">
         <v>291624</v>
       </c>
-      <c r="AX14" s="4">
+      <c r="AX14" s="3">
         <v>290195</v>
       </c>
-      <c r="AY14" s="4">
+      <c r="AY14" s="3">
         <v>378904</v>
       </c>
-      <c r="AZ14" s="4">
+      <c r="AZ14" s="3">
         <v>342981</v>
       </c>
-      <c r="BA14" s="4">
+      <c r="BA14" s="3">
         <v>314501</v>
       </c>
-      <c r="BB14" s="4">
+      <c r="BB14" s="3">
         <v>302754</v>
       </c>
-      <c r="BC14" s="4">
+      <c r="BC14" s="3">
         <v>357965</v>
       </c>
-      <c r="BD14" s="4">
+      <c r="BD14" s="3">
         <v>376638</v>
       </c>
-      <c r="BE14" s="4">
+      <c r="BE14" s="3">
         <v>410665</v>
       </c>
-      <c r="BF14" s="4">
+      <c r="BF14" s="3">
         <v>368909</v>
       </c>
-      <c r="BG14" s="8">
+      <c r="BG14" s="7">
         <v>325512</v>
       </c>
-      <c r="BH14" s="12">
+      <c r="BH14" s="11">
         <v>348962</v>
       </c>
-      <c r="BI14" s="13">
+      <c r="BI14" s="12">
         <v>344187</v>
       </c>
-      <c r="BJ14" s="14">
+      <c r="BJ14" s="13">
         <v>332766</v>
       </c>
-      <c r="BK14" s="14">
+      <c r="BK14" s="13">
         <v>268662</v>
       </c>
-      <c r="BL14" s="25">
+      <c r="BL14" s="23">
         <v>242429</v>
       </c>
-      <c r="BM14" s="14">
+      <c r="BM14" s="13">
         <v>214010</v>
       </c>
-      <c r="BN14" s="14">
+      <c r="BN14" s="13">
         <v>280961</v>
       </c>
-      <c r="BO14" s="14">
+      <c r="BO14" s="13">
         <v>276325</v>
       </c>
-      <c r="BP14" s="14">
+      <c r="BP14" s="13">
         <v>323188</v>
       </c>
-      <c r="BQ14" s="14">
+      <c r="BQ14" s="13">
         <v>296051</v>
       </c>
-      <c r="BR14" s="14">
+      <c r="BR14" s="13">
         <v>308056</v>
       </c>
-      <c r="BS14" s="14">
+      <c r="BS14" s="13">
         <v>386456</v>
       </c>
-      <c r="BT14" s="14">
+      <c r="BT14" s="13">
         <v>449750</v>
       </c>
+      <c r="BU14" s="13">
+        <v>385065</v>
+      </c>
     </row>
-    <row r="15" spans="1:72" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="27"/>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="27"/>
-      <c r="AQ15" s="27"/>
-      <c r="AR15" s="27"/>
-      <c r="AS15" s="27"/>
-      <c r="AT15" s="27"/>
-      <c r="AU15" s="27"/>
-      <c r="AV15" s="27"/>
-      <c r="AW15" s="27"/>
-      <c r="AX15" s="27"/>
-      <c r="AY15" s="27"/>
-      <c r="AZ15" s="27"/>
-      <c r="BA15" s="27"/>
-      <c r="BB15" s="27"/>
-      <c r="BC15" s="27"/>
-      <c r="BD15" s="27"/>
-      <c r="BE15" s="27"/>
-      <c r="BF15" s="27"/>
-      <c r="BG15" s="27"/>
-      <c r="BH15" s="27"/>
-      <c r="BI15" s="27"/>
-      <c r="BJ15" s="27"/>
-      <c r="BK15" s="27"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="34"/>
+      <c r="AP15" s="34"/>
+      <c r="AQ15" s="34"/>
+      <c r="AR15" s="34"/>
+      <c r="AS15" s="34"/>
+      <c r="AT15" s="34"/>
+      <c r="AU15" s="34"/>
+      <c r="AV15" s="34"/>
+      <c r="AW15" s="34"/>
+      <c r="AX15" s="34"/>
+      <c r="AY15" s="34"/>
+      <c r="AZ15" s="34"/>
+      <c r="BA15" s="34"/>
+      <c r="BB15" s="34"/>
+      <c r="BC15" s="34"/>
+      <c r="BD15" s="34"/>
+      <c r="BE15" s="34"/>
+      <c r="BF15" s="34"/>
+      <c r="BG15" s="34"/>
+      <c r="BH15" s="34"/>
+      <c r="BI15" s="34"/>
+      <c r="BJ15" s="34"/>
+      <c r="BK15" s="34"/>
     </row>
-    <row r="16" spans="1:72" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BQ6:BT6"/>
-    <mergeCell ref="BQ4:BT4"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="BM6:BP6"/>
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="A15:BK15"/>
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
@@ -3715,6 +3789,16 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="BQ6:BT6"/>
+    <mergeCell ref="BQ4:BT4"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="BM6:BP6"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="AL4:AO4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/pobocup_nivel-ingreso.xlsx
+++ b/Historicos/pobocup_nivel-ingreso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78B13FD-E937-46A0-A169-3CBA751E85F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7353444C-AA47-4AC0-9564-F70CCDA03C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'pob ocupada nivel ingreso'!$A$1:$BM$17</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="19">
   <si>
     <t>Indicadores</t>
   </si>
@@ -99,7 +110,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - I trimestre de 2023</t>
+    <t>I trimestre 2005 - II trimestre de 2023</t>
   </si>
 </sst>
 </file>
@@ -478,7 +489,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -770,19 +781,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -828,7 +826,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -893,6 +891,18 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -911,25 +921,10 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -991,9 +986,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1031,9 +1026,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1066,26 +1061,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1118,26 +1096,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1311,11 +1272,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BU17"/>
+  <dimension ref="A1:BV17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BY16" sqref="BY16"/>
+      <selection pane="topRight" activeCell="BT29" sqref="BT29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,10 +1349,11 @@
     <col min="69" max="70" width="15.6640625" customWidth="1"/>
     <col min="71" max="71" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.44140625" customWidth="1"/>
+    <col min="73" max="73" width="15" customWidth="1"/>
+    <col min="74" max="74" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1453,188 +1415,189 @@
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
-      <c r="AT3" s="35"/>
-      <c r="AU3" s="35"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="35"/>
-      <c r="AY3" s="35"/>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="35"/>
-      <c r="BB3" s="35"/>
-      <c r="BC3" s="35"/>
-      <c r="BD3" s="35"/>
-      <c r="BE3" s="35"/>
-      <c r="BF3" s="35"/>
+    <row r="3" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="27"/>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="27"/>
+      <c r="BC3" s="27"/>
+      <c r="BD3" s="27"/>
+      <c r="BE3" s="27"/>
+      <c r="BF3" s="27"/>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="28">
         <v>2005</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
         <v>2006</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32">
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28">
         <v>2007</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32">
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28">
         <v>2008</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32">
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28">
         <v>2009</v>
       </c>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32">
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28">
         <v>2010</v>
       </c>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32">
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28">
         <v>2011</v>
       </c>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32">
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28">
         <v>2012</v>
       </c>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32">
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28">
         <v>2013</v>
       </c>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32">
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28">
         <v>2014</v>
       </c>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32">
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="28">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="32"/>
-      <c r="AT4" s="32">
+      <c r="AQ4" s="28"/>
+      <c r="AR4" s="28"/>
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="28">
         <v>2016</v>
       </c>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32">
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28">
         <v>2017</v>
       </c>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="32">
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="28"/>
+      <c r="BA4" s="28"/>
+      <c r="BB4" s="28">
         <v>2018</v>
       </c>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32">
+      <c r="BC4" s="28"/>
+      <c r="BD4" s="28"/>
+      <c r="BE4" s="28"/>
+      <c r="BF4" s="28">
         <v>2019</v>
       </c>
-      <c r="BG4" s="32"/>
-      <c r="BH4" s="32"/>
-      <c r="BI4" s="33"/>
-      <c r="BJ4" s="32">
+      <c r="BG4" s="28"/>
+      <c r="BH4" s="28"/>
+      <c r="BI4" s="36"/>
+      <c r="BJ4" s="28">
         <v>2020</v>
       </c>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="33"/>
-      <c r="BM4" s="32">
+      <c r="BK4" s="28"/>
+      <c r="BL4" s="36"/>
+      <c r="BM4" s="28">
         <v>2021</v>
       </c>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32"/>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="29">
+      <c r="BN4" s="28"/>
+      <c r="BO4" s="28"/>
+      <c r="BP4" s="28"/>
+      <c r="BQ4" s="33">
         <v>2022</v>
       </c>
-      <c r="BR4" s="30"/>
-      <c r="BS4" s="30"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="38">
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="35"/>
+      <c r="BU4" s="36">
         <v>2023</v>
       </c>
+      <c r="BV4" s="37"/>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
@@ -1851,8 +1814,11 @@
       <c r="BU5" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="BV5" s="15" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -1919,17 +1885,18 @@
       <c r="BJ6" s="9"/>
       <c r="BK6" s="9"/>
       <c r="BL6" s="9"/>
-      <c r="BM6" s="26"/>
-      <c r="BN6" s="27"/>
-      <c r="BO6" s="27"/>
-      <c r="BP6" s="28"/>
-      <c r="BQ6" s="26"/>
-      <c r="BR6" s="27"/>
-      <c r="BS6" s="27"/>
-      <c r="BT6" s="28"/>
-      <c r="BU6" s="37"/>
+      <c r="BM6" s="30"/>
+      <c r="BN6" s="31"/>
+      <c r="BO6" s="31"/>
+      <c r="BP6" s="32"/>
+      <c r="BQ6" s="30"/>
+      <c r="BR6" s="31"/>
+      <c r="BS6" s="31"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="30"/>
+      <c r="BV6" s="32"/>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -2149,8 +2116,11 @@
       <c r="BU7" s="14">
         <v>4107726</v>
       </c>
+      <c r="BV7" s="14">
+        <v>4077856</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2370,8 +2340,11 @@
       <c r="BU8" s="13">
         <v>915114</v>
       </c>
+      <c r="BV8" s="13">
+        <v>829146</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2591,8 +2564,11 @@
       <c r="BU9" s="13">
         <v>1877430</v>
       </c>
+      <c r="BV9" s="13">
+        <v>1908094</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2812,8 +2788,11 @@
       <c r="BU10" s="13">
         <v>601984</v>
       </c>
+      <c r="BV10" s="13">
+        <v>607124</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3033,8 +3012,11 @@
       <c r="BU11" s="13">
         <v>168249</v>
       </c>
+      <c r="BV11" s="13">
+        <v>175838</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3254,8 +3236,11 @@
       <c r="BU12" s="13">
         <v>40936</v>
       </c>
+      <c r="BV12" s="13">
+        <v>41654</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3475,8 +3460,11 @@
       <c r="BU13" s="13">
         <v>118948</v>
       </c>
+      <c r="BV13" s="13">
+        <v>107796</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3696,75 +3684,78 @@
       <c r="BU14" s="13">
         <v>385065</v>
       </c>
+      <c r="BV14" s="13">
+        <v>408204</v>
+      </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="34"/>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="34"/>
-      <c r="AP15" s="34"/>
-      <c r="AQ15" s="34"/>
-      <c r="AR15" s="34"/>
-      <c r="AS15" s="34"/>
-      <c r="AT15" s="34"/>
-      <c r="AU15" s="34"/>
-      <c r="AV15" s="34"/>
-      <c r="AW15" s="34"/>
-      <c r="AX15" s="34"/>
-      <c r="AY15" s="34"/>
-      <c r="AZ15" s="34"/>
-      <c r="BA15" s="34"/>
-      <c r="BB15" s="34"/>
-      <c r="BC15" s="34"/>
-      <c r="BD15" s="34"/>
-      <c r="BE15" s="34"/>
-      <c r="BF15" s="34"/>
-      <c r="BG15" s="34"/>
-      <c r="BH15" s="34"/>
-      <c r="BI15" s="34"/>
-      <c r="BJ15" s="34"/>
-      <c r="BK15" s="34"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="26"/>
+      <c r="AS15" s="26"/>
+      <c r="AT15" s="26"/>
+      <c r="AU15" s="26"/>
+      <c r="AV15" s="26"/>
+      <c r="AW15" s="26"/>
+      <c r="AX15" s="26"/>
+      <c r="AY15" s="26"/>
+      <c r="AZ15" s="26"/>
+      <c r="BA15" s="26"/>
+      <c r="BB15" s="26"/>
+      <c r="BC15" s="26"/>
+      <c r="BD15" s="26"/>
+      <c r="BE15" s="26"/>
+      <c r="BF15" s="26"/>
+      <c r="BG15" s="26"/>
+      <c r="BH15" s="26"/>
+      <c r="BI15" s="26"/>
+      <c r="BJ15" s="26"/>
+      <c r="BK15" s="26"/>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
@@ -3775,7 +3766,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BU6:BV6"/>
+    <mergeCell ref="BQ6:BT6"/>
+    <mergeCell ref="BQ4:BT4"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="BM6:BP6"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="A15:BK15"/>
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
@@ -3789,16 +3792,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="BQ6:BT6"/>
-    <mergeCell ref="BQ4:BT4"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="BM6:BP6"/>
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="AL4:AO4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/pobocup_nivel-ingreso.xlsx
+++ b/Historicos/pobocup_nivel-ingreso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7353444C-AA47-4AC0-9564-F70CCDA03C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6033DC-B21F-4455-8618-8EB19A20258D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="19">
   <si>
     <t>Indicadores</t>
   </si>
@@ -110,7 +110,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - II trimestre de 2023</t>
+    <t>I trimestre 2005 - III trimestre de 2023</t>
   </si>
 </sst>
 </file>
@@ -826,7 +826,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -903,6 +903,15 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -919,12 +928,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1272,11 +1275,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BV17"/>
+  <dimension ref="A1:BW17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BT29" sqref="BT29"/>
+      <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BQ26" sqref="BQ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1351,9 +1354,10 @@
     <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="15" customWidth="1"/>
     <col min="74" max="74" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,12 +1419,12 @@
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -1480,7 +1484,7 @@
       <c r="BE3" s="27"/>
       <c r="BF3" s="27"/>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
@@ -1573,30 +1577,31 @@
       </c>
       <c r="BG4" s="28"/>
       <c r="BH4" s="28"/>
-      <c r="BI4" s="36"/>
+      <c r="BI4" s="30"/>
       <c r="BJ4" s="28">
         <v>2020</v>
       </c>
       <c r="BK4" s="28"/>
-      <c r="BL4" s="36"/>
+      <c r="BL4" s="30"/>
       <c r="BM4" s="28">
         <v>2021</v>
       </c>
       <c r="BN4" s="28"/>
       <c r="BO4" s="28"/>
       <c r="BP4" s="28"/>
-      <c r="BQ4" s="33">
+      <c r="BQ4" s="36">
         <v>2022</v>
       </c>
-      <c r="BR4" s="34"/>
-      <c r="BS4" s="34"/>
-      <c r="BT4" s="35"/>
-      <c r="BU4" s="36">
+      <c r="BR4" s="37"/>
+      <c r="BS4" s="37"/>
+      <c r="BT4" s="38"/>
+      <c r="BU4" s="30">
         <v>2023</v>
       </c>
-      <c r="BV4" s="37"/>
+      <c r="BV4" s="31"/>
+      <c r="BW4" s="32"/>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A5" s="29"/>
       <c r="B5" s="15" t="s">
         <v>1</v>
@@ -1817,8 +1822,11 @@
       <c r="BV5" s="15" t="s">
         <v>2</v>
       </c>
+      <c r="BW5" s="15" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -1885,18 +1893,19 @@
       <c r="BJ6" s="9"/>
       <c r="BK6" s="9"/>
       <c r="BL6" s="9"/>
-      <c r="BM6" s="30"/>
-      <c r="BN6" s="31"/>
-      <c r="BO6" s="31"/>
-      <c r="BP6" s="32"/>
-      <c r="BQ6" s="30"/>
-      <c r="BR6" s="31"/>
-      <c r="BS6" s="31"/>
-      <c r="BT6" s="32"/>
-      <c r="BU6" s="30"/>
-      <c r="BV6" s="32"/>
+      <c r="BM6" s="33"/>
+      <c r="BN6" s="34"/>
+      <c r="BO6" s="34"/>
+      <c r="BP6" s="35"/>
+      <c r="BQ6" s="33"/>
+      <c r="BR6" s="34"/>
+      <c r="BS6" s="34"/>
+      <c r="BT6" s="35"/>
+      <c r="BU6" s="33"/>
+      <c r="BV6" s="34"/>
+      <c r="BW6" s="35"/>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -2119,8 +2128,11 @@
       <c r="BV7" s="14">
         <v>4077856</v>
       </c>
+      <c r="BW7" s="14">
+        <v>3996628</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2343,8 +2355,11 @@
       <c r="BV8" s="13">
         <v>829146</v>
       </c>
+      <c r="BW8" s="13">
+        <v>737059</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2567,8 +2582,11 @@
       <c r="BV9" s="13">
         <v>1908094</v>
       </c>
+      <c r="BW9" s="13">
+        <v>1762230</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2791,8 +2809,11 @@
       <c r="BV10" s="13">
         <v>607124</v>
       </c>
+      <c r="BW10" s="13">
+        <v>669888</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3015,8 +3036,11 @@
       <c r="BV11" s="13">
         <v>175838</v>
       </c>
+      <c r="BW11" s="13">
+        <v>207203</v>
+      </c>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3239,8 +3263,11 @@
       <c r="BV12" s="13">
         <v>41654</v>
       </c>
+      <c r="BW12" s="13">
+        <v>35178</v>
+      </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3463,8 +3490,11 @@
       <c r="BV13" s="13">
         <v>107796</v>
       </c>
+      <c r="BW13" s="13">
+        <v>101665</v>
+      </c>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -3687,8 +3717,11 @@
       <c r="BV14" s="13">
         <v>408204</v>
       </c>
+      <c r="BW14" s="13">
+        <v>483405</v>
+      </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>16</v>
       </c>
@@ -3755,7 +3788,7 @@
       <c r="BJ15" s="26"/>
       <c r="BK15" s="26"/>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
@@ -3767,8 +3800,8 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BU6:BV6"/>
+    <mergeCell ref="BU4:BW4"/>
+    <mergeCell ref="BU6:BW6"/>
     <mergeCell ref="BQ6:BT6"/>
     <mergeCell ref="BQ4:BT4"/>
     <mergeCell ref="AH4:AK4"/>
